--- a/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
+++ b/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\6 Точечное и доверительное оценивание\2 Доверительные интервалы для среднего\Задание 4 Продолжение исследования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA22FFA-E170-4ECE-93E2-02A598FDE2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C2C71-FBBF-4DB0-A3BB-9DF4D42506AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <author>Spaceship24</author>
   </authors>
   <commentList>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{0D5D98BC-DA76-4544-8A16-CF1002399C8B}">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{0D5D98BC-DA76-4544-8A16-CF1002399C8B}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{BEFAA7B8-D1B6-4DF5-BB99-0832D6B29BC3}">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{BEFAA7B8-D1B6-4DF5-BB99-0832D6B29BC3}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="209">
   <si>
     <t>Частота</t>
   </si>
@@ -788,15 +788,89 @@
     <t>3) Постройте доверительный интервал для математического ожидания при неизвестном стандартном отклонении (с помощью t-оценки).</t>
   </si>
   <si>
-    <t>z</t>
+    <t>Математичческое ожидание μ</t>
+  </si>
+  <si>
+    <t>Математическое ожидание</t>
+  </si>
+  <si>
+    <t>μ</t>
+  </si>
+  <si>
+    <t>ср. ар. всех эл. Набора</t>
+  </si>
+  <si>
+    <t>ср. ар. всех эл. Набора
+Также, как и выборочное среднее</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество измерений n = </t>
+  </si>
+  <si>
+    <t>Известное стандартное отклонение s =</t>
+  </si>
+  <si>
+    <t>Пусть мой уровень доверия a =</t>
+  </si>
+  <si>
+    <t>Вычисляю z-оценку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z-оценка = </t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Таким образом, наш 90% доверительный интервал для μ, основанный на наблюдении за средним значением выборки, составляет:</t>
+  </si>
+  <si>
+    <t>x¯ + z σ/√n</t>
+  </si>
+  <si>
+    <t>x¯ -z σ/√n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σ = s = </t>
+  </si>
+  <si>
+    <t>t-оценка = T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(T&lt;t) = </t>
+  </si>
+  <si>
+    <t>Выбранный мною уровень доверия</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>x¯ -t s/√n</t>
+  </si>
+  <si>
+    <t>x¯ + t s/√n</t>
+  </si>
+  <si>
+    <t>x¯ = μ =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -943,7 +1017,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +1051,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +1171,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1217,6 +1297,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1224,6 +1316,21 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1267,21 +1374,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2526,7 +2618,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$45</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2545,7 +2637,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2556,7 +2648,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$45</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2577,7 +2669,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$46</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2617,7 +2709,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2628,7 +2720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$46</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2649,7 +2741,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$47</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2670,7 +2762,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2681,7 +2773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$47</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2702,7 +2794,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$48</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2723,7 +2815,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2734,7 +2826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$48</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2755,7 +2847,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$A$49</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2812,7 +2904,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$44</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2823,7 +2915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 Исследовательский анализ дан'!$B$49</c:f>
+              <c:f>'2 Исследовательский анализ дан'!$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5819,13 +5911,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>139524</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5875,13 +5967,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>80104</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>90092</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5931,13 +6023,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>72268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2018964</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>248576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5975,13 +6067,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>83376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1904643</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>723744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6019,13 +6111,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1876235</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>609530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6063,13 +6155,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6099,13 +6191,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>372852</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6143,13 +6235,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>304799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2142067</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>885824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6204,13 +6296,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2162555</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>552449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6450,7 +6542,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>122895</xdr:colOff>
+      <xdr:colOff>27645</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>132976</xdr:rowOff>
     </xdr:to>
@@ -6477,6 +6569,270 @@
         <a:xfrm>
           <a:off x="609600" y="190500"/>
           <a:ext cx="7438095" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174632</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8831347-4902-44F4-A664-807C21AD1794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4363390" y="4953000"/>
+          <a:ext cx="3831292" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409903</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>519890</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4CDA2C-529E-496D-8692-AFEA4407C8CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429953" y="5543550"/>
+          <a:ext cx="2548387" cy="1552159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314133</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E0043D-3978-4FF8-A1A0-31E96A9E96FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8229714"/>
+          <a:ext cx="1533333" cy="914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BBF462-F621-4241-B898-EE95F7EF9F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="8048626"/>
+          <a:ext cx="7048500" cy="1610016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>456219</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>75856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BE261E-1864-4EFD-B2E5-FEA241120620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="9896475"/>
+          <a:ext cx="7847619" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>181071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533029</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C405A599-FA2E-440C-B5EA-03FF92C5C4D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="13135071"/>
+          <a:ext cx="2971429" cy="771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6521,8 +6877,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A79:E81" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A79:E81" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}" name="Таблица10" displayName="Таблица10" ref="A80:E82" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A80:E82" xr:uid="{9665EA73-8C3C-48C2-AAAA-4827552D4F9D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4D02143E-CED5-4EAF-8EDB-EC484875FA1C}" name="Характеристика"/>
     <tableColumn id="2" xr3:uid="{43A56096-1CFC-4B83-AB9C-89958D88D71E}" name="Обозначение"/>
@@ -6544,10 +6900,10 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="8" dataCellStyle="Обычный 2">
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="11" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="7" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="10" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6556,16 +6912,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="6">
       <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6575,7 +6931,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6671,8 +7027,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}" name="Характеристики_положения" displayName="Характеристики_положения" ref="A12:E17" totalsRowShown="0">
-  <autoFilter ref="A12:E17" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}" name="Характеристики_положения" displayName="Характеристики_положения" ref="A12:E18" totalsRowShown="0">
+  <autoFilter ref="A12:E18" xr:uid="{A2D1B837-8667-44A9-AA50-5AEF70A5D668}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F8E4884A-250F-4F19-B2C0-E61FDF84F2F5}" name="Характеристика"/>
     <tableColumn id="5" xr3:uid="{1EC29F04-4823-4B3A-AE7E-B19DA62E8331}" name="Обозначение"/>
@@ -6685,13 +7041,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}" name="Таблица4" displayName="Таблица4" ref="A24:E29" totalsRowShown="0">
-  <autoFilter ref="A24:E29" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}" name="Таблица4" displayName="Таблица4" ref="A25:E30" totalsRowShown="0">
+  <autoFilter ref="A25:E30" xr:uid="{1276DB68-3E00-4C00-B375-CB91403EAA94}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA1BF93C-BD07-45F2-A6DB-A1F912D83D8F}" name="Характеристика" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{E907B708-BCA0-47BB-BB90-35F22BBD3206}" name="Обозначение"/>
     <tableColumn id="2" xr3:uid="{8DD48963-525C-47C2-A9A8-96A475FCA8B3}" name="Значение" dataDxfId="21">
-      <calculatedColumnFormula>C17-C16</calculatedColumnFormula>
+      <calculatedColumnFormula>C18-C17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A1B282B2-CBF2-41BF-96B2-0639BCAA11D1}" name="Что характерезует" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{8B990AE4-2055-4B46-97A1-0CB8EC46F9A4}" name="Как вычисляется" dataDxfId="19"/>
@@ -6701,8 +7057,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A36:B41" totalsRowShown="0">
-  <autoFilter ref="A36:B41" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}" name="Таблица_подготовительная_Коробковая_диаграмма" displayName="Таблица_подготовительная_Коробковая_диаграмма" ref="A37:B42" totalsRowShown="0">
+  <autoFilter ref="A37:B42" xr:uid="{5CBB42C3-0251-4BF0-BBD9-9EED82B7FC87}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7F71B5D-557A-4432-A81C-3D89DABAD4DA}" name="Статистики" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{36E62E90-8C4F-440E-AC06-29D346A5D69C}" name="Значения"/>
@@ -6712,8 +7068,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A44:B49" totalsRowShown="0">
-  <autoFilter ref="A44:B49" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}" name="Таблица9" displayName="Таблица9" ref="A45:B50" totalsRowShown="0">
+  <autoFilter ref="A45:B50" xr:uid="{B4D3BFD0-78AF-44AA-A289-5FAD644BABF7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6AAF0BAF-3AA0-495C-A9F4-ADF4CA1B3E39}" name="Разницы" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{E713B8F4-E0AA-469B-AADF-9CE82893C1B0}" name="Значения"/>
@@ -6990,8 +7346,8 @@
   </sheetPr>
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9389,10 +9745,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9467,162 +9823,153 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="C15" s="12">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="12">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E16" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105">
-      <c r="A16" t="s">
+    <row r="17" spans="1:15" ht="105">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
         <v>7</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30">
-      <c r="A17" t="s">
+    <row r="18" spans="1:15" ht="30">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
         <v>11</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="14" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="120">
-      <c r="A25" s="27" t="s">
+    <row r="26" spans="1:15" ht="120">
+      <c r="A26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B26" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="39">
-        <f>C17-C16</f>
+      <c r="C26" s="39">
+        <f>C18-C17</f>
         <v>4</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D26" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E26" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="107.25" customHeight="1">
-      <c r="A26" s="43" t="s">
+    <row r="27" spans="1:15" ht="107.25" customHeight="1">
+      <c r="A27" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B27" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C27" s="41">
         <f>_xlfn.VAR.P(Возраст_детей[Возраст детей])</f>
         <v>16.574626038781162</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D27" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="43"/>
-    </row>
-    <row r="27" spans="1:15" ht="64.5" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:15" ht="64.5" customHeight="1">
+      <c r="A28" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B28" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C28" s="44">
         <f>_xlfn.VAR.S(Возраст_детей[Возраст детей])</f>
         <v>16.750951847704371</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D28" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="G27" s="58" t="s">
+      <c r="E28" s="27"/>
+      <c r="G28" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-    </row>
-    <row r="28" spans="1:15" ht="93" customHeight="1">
-      <c r="A28" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="44">
-        <f>SQRT(C27)</f>
-        <v>4.0927926709893789</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
@@ -9632,21 +9979,23 @@
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
     </row>
-    <row r="29" spans="1:15" ht="162" customHeight="1">
+    <row r="29" spans="1:15" ht="93" customHeight="1">
       <c r="A29" s="27" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="46">
-        <f>C28/C15</f>
-        <v>0.42586561198684669</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="C29" s="44">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="G29" s="59"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
@@ -9657,11 +10006,22 @@
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="F30" s="17"/>
-      <c r="G30" s="58" t="s">
-        <v>170</v>
-      </c>
+    <row r="30" spans="1:15" ht="162" customHeight="1">
+      <c r="A30" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="46">
+        <f>C29/C16</f>
+        <v>0.42586561198684669</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="59"/>
       <c r="I30" s="59"/>
       <c r="J30" s="59"/>
@@ -9671,220 +10031,234 @@
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="14" t="s">
-        <v>44</v>
-      </c>
+    <row r="31" spans="1:15">
+      <c r="F31" s="17"/>
+      <c r="G31" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="14" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <f>MIN(Возраст_детей[Возраст детей])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="19" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="19" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f>MEDIAN(Возраст_детей[Возраст детей])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="19" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f>_xlfn.QUARTILE.INC(Возраст_детей[Возраст детей],3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="19" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <f>MAX(Возраст_детей[Возраст детей])</f>
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="19"/>
-    </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="19" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B45">
-        <f>B37</f>
+      <c r="B46">
+        <f>B38</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46">
-        <f>B38-B45</f>
-        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47">
-        <f>B39-B38</f>
-        <v>2</v>
+        <f>B39-B46</f>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
-        <f>B40-B38</f>
-        <v>4</v>
+        <f>B40-B39</f>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <f>B41-B39</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B49">
-        <f>B41-B40</f>
+      <c r="B50">
+        <f>B42-B41</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="19"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="19"/>
     </row>
-    <row r="53" spans="1:5">
-      <c r="E53" t="s">
-        <v>87</v>
-      </c>
+    <row r="52" spans="1:5">
+      <c r="A52" s="19"/>
     </row>
     <row r="54" spans="1:5">
       <c r="E54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="E55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="14" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="14" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="22" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B80" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C80" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D80" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E80" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="90">
-      <c r="A80" t="s">
+    <row r="81" spans="1:4" ht="90">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C81" s="18">
         <f>SKEW(Возраст_детей[Возраст детей])</f>
         <v>1.5182607207914853</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D81" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="75">
-      <c r="A81" t="s">
+    <row r="82" spans="1:4" ht="75">
+      <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C82" s="18">
         <f>KURT(Возраст_детей[Возраст детей])</f>
         <v>4.026404197317472</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D82" s="17" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G27:O29"/>
-    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="G28:O30"/>
+    <mergeCell ref="G31:O31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D80" r:id="rId1" display="https://excel2.ru/articles/funkciya-raspredeleniya-i-plotnost-veroyatnosti-v-ms-excel" xr:uid="{097F1DB3-CD9D-4A52-A27A-36D025F1F1FA}"/>
+    <hyperlink ref="D81" r:id="rId1" display="https://excel2.ru/articles/funkciya-raspredeleniya-i-plotnost-veroyatnosti-v-ms-excel" xr:uid="{097F1DB3-CD9D-4A52-A27A-36D025F1F1FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -10093,7 +10467,7 @@
         <v>73</v>
       </c>
       <c r="O8" s="44">
-        <f>SQRT('2 Исследовательский анализ дан'!C27)</f>
+        <f>SQRT('2 Исследовательский анализ дан'!C28)</f>
         <v>4.0927926709893789</v>
       </c>
       <c r="P8" s="27" t="s">
@@ -11625,15 +11999,15 @@
     <mergeCell ref="N29:P29"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A99">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>$N$42</formula>
       <formula>$N$44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>$N$41</formula>
       <formula>$N$43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
       <formula>$N$44</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11650,36 +12024,230 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F2C049-0025-455D-B167-4CDC7262CF91}">
-  <dimension ref="B19:S27"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A19:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
-      <c r="R21" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
         <v>184</v>
       </c>
-      <c r="S21">
-        <f>_xlfn.NORM.S.INV(0.9)</f>
-        <v>1.2815515655446006</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="F21" s="12">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="12">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
-      <c r="B27" t="s">
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28">
+        <f>COUNTA(Возраст_детей[Возраст детей])</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="12">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="61">
+        <f>_xlfn.NORM.S.INV((F30+1)/2)</f>
+        <v>1.6448536269514715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="12">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="64">
+        <f>F21-D34*I37/ SQRT(E28)</f>
+        <v>8.9198330856791355</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="66">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="64">
+        <f>F21+D34*I37/ SQRT(E28)</f>
+        <v>10.30121954589981</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="12">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69">
+        <f>COUNTA(Возраст_детей[Возраст детей])</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70">
+        <v>0.9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71">
+        <f>_xlfn.T.INV(C70,C69-1)</f>
+        <v>1.2906227080477188</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="64">
+        <f>C72-C71*C68/SQRT(C69)</f>
+        <v>9.0685787816934607</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="66">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="E75" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="64">
+        <f>C72+C71*C68/SQRT(C69)</f>
+        <v>10.152473849885485</v>
       </c>
     </row>
   </sheetData>

--- a/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
+++ b/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\6 Точечное и доверительное оценивание\2 Доверительные интервалы для среднего\Задание 4 Продолжение исследования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C2C71-FBBF-4DB0-A3BB-9DF4D42506AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FF138-A009-4066-8BA0-80C57AAF644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Первичная обработка данных" sheetId="6" r:id="rId1"/>
     <sheet name="2 Исследовательский анализ дан" sheetId="7" r:id="rId2"/>
     <sheet name="Отчёт 1" sheetId="8" r:id="rId3"/>
     <sheet name="Построение дов. интервала" sheetId="9" r:id="rId4"/>
+    <sheet name="Отчёт 2" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Итого_детей_возраста_1_9_лет">#REF!</definedName>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="256">
   <si>
     <t>Частота</t>
   </si>
@@ -863,6 +864,185 @@
   <si>
     <t xml:space="preserve">s = </t>
   </si>
+  <si>
+    <t>Отчёт 2:</t>
+  </si>
+  <si>
+    <t>1) Описание данных</t>
+  </si>
+  <si>
+    <t>выборочное стандартное отклонение s = _____</t>
+  </si>
+  <si>
+    <t>объём выборки n =  _____</t>
+  </si>
+  <si>
+    <t>выборочное среднее x¯ = _____</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точечная оценка - </t>
+  </si>
+  <si>
+    <t>это выборочная характеристика, используемая в качестве приближенного значения неизвестной генеральной характеристики.</t>
+  </si>
+  <si>
+    <t>1. математического ожидания μ</t>
+  </si>
+  <si>
+    <t>2. стандартного отклонения генеральной совокупности</t>
+  </si>
+  <si>
+    <t>Выборочное среднее x¯ - т.к. представляет из себя несмещённую оценку</t>
+  </si>
+  <si>
+    <t>Выборочная дисперсия - не подходит, т.к. является смещённой оценкой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несмещённая оценка - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смещёнаня оценка - </t>
+  </si>
+  <si>
+    <t>Исправленная дисперсия - подходит, т.к. является хорошой оценкой дисперсии</t>
+  </si>
+  <si>
+    <t>можно взять в качестве точечных оценок и почему:</t>
+  </si>
+  <si>
+    <t>оценка, имеющая тенденцию искажать оцениваемый параметр в одном конкретном направлении</t>
+  </si>
+  <si>
+    <t>оценка, которая с равной вероятностью может представлять как завышенный, так и заниженное значение оцениваемого параметра</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> использовать при построении доверительного интервала и почему.</t>
+  </si>
+  <si>
+    <t>Нормальное распределение и распределение Стьюдента</t>
+  </si>
+  <si>
+    <t>Поэтому Нормальное распределение даст более точные оценки.</t>
+  </si>
+  <si>
+    <t>2) Построение доверительного интервала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объём моей выборки n = 95, что больше 30. </t>
+  </si>
+  <si>
+    <t>1) Укажите следующие значения:</t>
+  </si>
+  <si>
+    <t>2) Объясните какие выборочные характеристики</t>
+  </si>
+  <si>
+    <t>3) Какие вероятностные распределения вы будете</t>
+  </si>
+  <si>
+    <t>а. Доверительный интервал: _____</t>
+  </si>
+  <si>
+    <t>b. Граница ошибки: _____</t>
+  </si>
+  <si>
+    <t>Используя Нормальное распределение</t>
+  </si>
+  <si>
+    <t>Используя распределение Стьюдента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разница между границами = </t>
+  </si>
+  <si>
+    <t>Она же граница ошибки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Почему-то при использовании </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Распределения Стьюдента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для построения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">доверительного интервала граница ошибки получилась меньше, чем при исполььзоовании </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Нормального Распределения</t>
+    </r>
+  </si>
+  <si>
+    <t>Должно было быть наоборот, т.к. Объём моей выборки n = 95</t>
+  </si>
+  <si>
+    <t>Что больше 30!</t>
+  </si>
+  <si>
+    <t>Рассчёты на листе "Построение дов. интервала"</t>
+  </si>
+  <si>
+    <t>А вот и нет. Почему-то это оказалось не так.</t>
+  </si>
+  <si>
+    <t>a. Доверительный интервал</t>
+  </si>
+  <si>
+    <t>b. Граница ошибки</t>
+  </si>
+  <si>
+    <t>1) При заданном уровне доверии a = 0.9 рассчитайте:</t>
+  </si>
+  <si>
+    <t>2) Сколько площади в обоих хвостах в сумме y</t>
+  </si>
+  <si>
+    <t>Вся площадь под графиком берётся за 1</t>
+  </si>
+  <si>
+    <t>Поэтому</t>
+  </si>
+  <si>
+    <t>y = 1 - a = 1 - 0.9 = 0.1</t>
+  </si>
+  <si>
+    <t>3) Сколько площади в каждом хвосте</t>
+  </si>
+  <si>
+    <t>y/2 = y / 2 = 0.1 / 2 = 0.05</t>
+  </si>
+  <si>
+    <t>4) Рисуночки</t>
+  </si>
 </sst>
 </file>
 
@@ -870,9 +1050,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,8 +1196,48 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF444444"/>
+      <name val="PT Serif"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,6 +1277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1289,15 +1515,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,6 +1529,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -6844,6 +7087,1970 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488667</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C14306F-66AF-4322-B4CB-A07D64A8B9F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11239500" y="3451412"/>
+          <a:ext cx="3144461" cy="2360199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3485745</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4200705</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115155</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Рукописный ввод 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8579E36-F3A8-4702-9BF9-7829107D900D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7629120" y="5305035"/>
+            <a:ext cx="714960" cy="1820520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Рукописный ввод 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8579E36-F3A8-4702-9BF9-7829107D900D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7620480" y="5296395"/>
+              <a:ext cx="732600" cy="1838160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3333350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE17045-F147-4BAB-9D58-288C6D97552A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="7743825"/>
+          <a:ext cx="3200000" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885423</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFB4019-3B28-45C1-B22B-C87C3C762F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="7781925"/>
+          <a:ext cx="3219048" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2466667</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2F434E-5542-49FD-B8AA-BF033A016691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="8162925"/>
+          <a:ext cx="2466667" cy="419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>256852</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5611CED1-4542-411A-9F97-FCEF3AB9CA48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982075" y="8172450"/>
+          <a:ext cx="2580952" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2604625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15" descr="fb2012a3-249b-4c5c-804d-2ff5dbfe7962">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12B18B2-B528-4C9F-986F-A052182CAAEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4033375" y="10477500"/>
+          <a:ext cx="4939175" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16" descr="fb2012a3-249b-4c5c-804d-2ff5dbfe7962">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE59455-1A34-4D3C-B7DA-2174A5C86633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8972550" y="10458450"/>
+          <a:ext cx="4939175" cy="2752725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2426985</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>135885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2562345</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>86505</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="20" name="Рукописный ввод 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C256A4E-BBCE-4254-8D94-CA439C1FC746}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6570360" y="10613385"/>
+            <a:ext cx="135360" cy="141120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Рукописный ввод 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C256A4E-BBCE-4254-8D94-CA439C1FC746}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6561360" y="10604385"/>
+              <a:ext cx="153000" cy="158760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2685465</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2752785</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>56985</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Рукописный ввод 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC83F55-28CB-4450-9665-EF3FE1C6D4D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6828840" y="10600785"/>
+            <a:ext cx="67320" cy="124200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Рукописный ввод 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC83F55-28CB-4450-9665-EF3FE1C6D4D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6820200" y="10592145"/>
+              <a:ext cx="84960" cy="141840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>471945</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>68205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30345</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Рукописный ввод 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F211518-96A1-4F8F-837E-5B374F55787A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11778120" y="10545705"/>
+            <a:ext cx="73080" cy="152640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Рукописный ввод 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F211518-96A1-4F8F-837E-5B374F55787A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11769120" y="10537065"/>
+              <a:ext cx="90720" cy="170280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>191865</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>65685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333345</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>33225</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Рукописный ввод 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB579F6-DE9C-485F-B413-D89A0E04EC82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11498040" y="10543185"/>
+            <a:ext cx="141480" cy="158040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Рукописный ввод 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB579F6-DE9C-485F-B413-D89A0E04EC82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11489400" y="10534205"/>
+              <a:ext cx="159120" cy="175640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514305</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>135465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1020825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>92925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Рукописный ввод 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09920496-11FE-48A3-8F83-4433FF661120}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4657680" y="11946465"/>
+            <a:ext cx="506520" cy="147960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Рукописный ввод 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09920496-11FE-48A3-8F83-4433FF661120}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4649040" y="11937825"/>
+              <a:ext cx="524160" cy="165600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4156785</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4604985</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100845</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Рукописный ввод 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC5DEA7-0BF6-48E5-8BA2-127B8C6C87FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8300160" y="11950425"/>
+            <a:ext cx="448200" cy="151920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Рукописный ввод 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC5DEA7-0BF6-48E5-8BA2-127B8C6C87FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8291520" y="11941785"/>
+              <a:ext cx="465840" cy="169560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>633330</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>94785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1093050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>63045</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="Рукописный ввод 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF7A334-C56D-4CF9-B39C-07A487687746}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9605880" y="11905785"/>
+            <a:ext cx="459720" cy="158760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Рукописный ввод 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF7A334-C56D-4CF9-B39C-07A487687746}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9596887" y="11897145"/>
+              <a:ext cx="477346" cy="176400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>128265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>278055</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101565</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="50" name="Рукописный ввод 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1580A237-D77B-4B5B-AECC-40D1425B6BC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13237200" y="11939265"/>
+            <a:ext cx="499680" cy="163800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Рукописный ввод 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1580A237-D77B-4B5B-AECC-40D1425B6BC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13228206" y="11930285"/>
+              <a:ext cx="517307" cy="181401"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2981025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2981385</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114405</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Рукописный ввод 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9E0D3D-13A0-4B65-90E1-4EDFFF498494}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7124400" y="10210545"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Рукописный ввод 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9E0D3D-13A0-4B65-90E1-4EDFFF498494}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7115760" y="10201905"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1047465</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>112665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1471185</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88845</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="58" name="Рукописный ввод 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBA8A84-CAD0-474C-8611-C2A55B39F2DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5190840" y="12876165"/>
+            <a:ext cx="423720" cy="166680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="58" name="Рукописный ввод 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBA8A84-CAD0-474C-8611-C2A55B39F2DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5182200" y="12867184"/>
+              <a:ext cx="441360" cy="184282"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2256345</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2545065</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>103245</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="62" name="Рукописный ввод 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D93CE94-80DF-485A-B7B2-AF1B78AC287C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6399720" y="12896685"/>
+            <a:ext cx="288720" cy="160560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="62" name="Рукописный ввод 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D93CE94-80DF-485A-B7B2-AF1B78AC287C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6390731" y="12888045"/>
+              <a:ext cx="306338" cy="178200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3056985</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3454785</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>73005</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="67" name="Рукописный ввод 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126F5843-CF3C-4BC2-B7D0-E8238E54A32A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7200360" y="12896685"/>
+            <a:ext cx="397800" cy="130320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="Рукописный ввод 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126F5843-CF3C-4BC2-B7D0-E8238E54A32A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7191720" y="12887685"/>
+              <a:ext cx="415440" cy="147960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266570</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1686330</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>74085</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="74" name="Рукописный ввод 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD45CF09-1FFC-48B7-A4D4-F7D2D4DE44CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10239120" y="12848805"/>
+            <a:ext cx="419760" cy="179280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="Рукописный ввод 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD45CF09-1FFC-48B7-A4D4-F7D2D4DE44CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10230128" y="12840165"/>
+              <a:ext cx="437385" cy="196920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219585</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292305</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38805</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="77" name="Рукописный ввод 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0200EF3D-9801-4728-A761-466A3D68F981}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11525760" y="12877605"/>
+            <a:ext cx="72720" cy="115200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="Рукописный ввод 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0200EF3D-9801-4728-A761-466A3D68F981}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11516760" y="12868965"/>
+              <a:ext cx="90360" cy="132840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2288610</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>102585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57585</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63645</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="78" name="Рукописный ввод 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22535A38-0662-46EB-A107-57343B5DC709}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11261160" y="12866085"/>
+            <a:ext cx="102600" cy="151560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="78" name="Рукописный ввод 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22535A38-0662-46EB-A107-57343B5DC709}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11252128" y="12857106"/>
+              <a:ext cx="120302" cy="169158"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885585</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>69105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1312905</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69405</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="Рукописный ввод 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F32E68A-7BDD-4118-A6DC-5C20789E1172}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12191760" y="12832605"/>
+            <a:ext cx="427320" cy="190800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Рукописный ввод 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F32E68A-7BDD-4118-A6DC-5C20789E1172}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12183120" y="12823981"/>
+              <a:ext cx="444960" cy="208407"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T11:54:07.641"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 1,'6'1,"0"1,0 0,-1 1,1-1,0 1,-1 0,1 0,-1 1,6 5,3 1,361 264,-281-193,-58-48,44 31,-35-33,-19-15,-1 1,-1 1,0 2,-2 0,0 1,23 30,-6 2,1-2,-3 2,-2 1,45 96,-51-79,46 100,-20-72,-24-48,42 103,-61-115,-2 1,-2 0,-2 1,2 47,-3-29,13 59,73 202,1 4,-63-200,-10-50,17 147,-20-92,43 174,-40-218,-12-46,2 67,1 11,6-13,6 192,-11-124,0-41,3 65,2 76,-16-250</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2064.64">107 1,'1'2,"1"0,-1 0,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,0-1,2 2,5 2,11 5,1 0,0-1,0-2,1 0,26 3,-24-4,0 2,0 1,-1 1,0 1,31 17,-23-10,61 21,-48-30,-25-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3126.19">1 1,'1'14,"0"0,1 0,6 20,4 30,-8 263,-5-185,1-119</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:03:28.152"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:03:40.267"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 31,'-1'-1,"0"-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 1,-2 1,1 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 0,2 7,1-1,0-1,1 1,0-1,1 0,0 0,1 0,-1 0,2-1,-1 0,10 8,-10-10,1 1,-1 0,0 1,-1-1,1 1,-2 0,1 1,-1-1,0 1,-1-1,0 1,3 12,-6-19,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,-4 0,1 0,0 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,0-1,1 0,-1 0,1 0,-1-1,1 1,-6-6,5 3,0-1,0 1,0-1,1 0,-1-1,2 1,-1-1,1 0,0 0,0 0,0 0,1 0,1-1,-1 1,1-1,0 1,1-10,0 11,1 0,0 0,0 0,0 0,1 0,0 1,0-1,1 1,-1-1,1 1,0 0,1 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 1,0-1,0 1,6-4,6-1,-10 4,1 1,-1-1,-1 0,1-1,7-6,-12 10,-1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,-1-1,-8-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="854.11">318 349,'0'4,"0"7,0 5,0 5,0 3,-5-3,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4280.73">636 58,'-3'0,"1"0,-1 1,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 5,-1-4,0 0,1-1,0 1,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 0,0 1,-1-1,1 0,0 0,1 0,3 2,-1-2,0 0,0 0,0-1,0 1,0-2,0 1,0 0,0-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,-1 0,1-1,3-2,-4 2,-1 1,0-1,0 1,0-1,0 0,0 0,-1 0,0 0,1-1,-1 1,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,-2-7,3 11,0-1,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,-1 1,1 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-2-1,-6 13,1 26,16 28,-6-53,0 0,-1 0,0 19,-2-28,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 1,0-1,-6 5,4-3,-1 0,0-1,0 0,-1 0,0 0,1-1,-13 6,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6231.1">980 58,'8'0,"0"1,0 0,0 1,0 0,0 0,0 1,0 0,-1 0,0 1,1 0,-1 0,0 1,-1-1,12 11,-15-11,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 1,0-1,0 1,0-1,-1 1,1 0,-1-1,0 1,0 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1 0,0 0,-3 5,2-7,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,-1-1,0 1,1-1,-1 0,-4 1,-67 13,25-16,48 0,1 1,-1 0,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,-1-3,2 3,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,0 1,37 11,-24 0,0 0,22 27,20 17,-51-52,0 0,0 0,0-1,0 0,0 0,1 0,0-1,-1 1,12 2,-2-4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:03:51.119"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">109 1,'-6'0,"1"0,0 1,-1-1,1 1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 1,-1 0,1 0,0 0,-1 1,-4 5,7-7,1 1,-1 0,0-1,1 1,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0 1,1-1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,1-1,0 1,0 0,3 2,-3-1,1-1,0 0,-1 0,1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1-1,1 0,4-2,0 0,-1-1,0 0,0 0,0 0,0-1,-1 0,0 0,0-1,-1 0,0 0,0 0,0 0,-1-1,4-8,0-3,-8 19,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,-3 34,1-13,2 22,0-21,0 1,-2 0,0 0,-6 24,7-42,0-1,-1 1,1-1,-1 0,1 0,-1 0,-1 0,1 0,0 0,-1-1,0 1,0-1,0 1,0-1,-1 0,1 0,-1-1,0 1,1-1,-1 0,-1 0,1 0,0 0,0-1,0 0,-8 2,-5-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="541">320 318,'0'4,"0"7,0 5,0 5,-5 3,-5-3,-6-4,-5-6,2-8,3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1964.15">717 106,'-2'0,"0"1,0-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 1,0 0,-1-1,1 1,-2 3,-20 39,19-34,-7 13,1 1,-9 31,17-48,0 0,1 1,0-1,0 1,0 0,1-1,0 1,0 0,1-1,0 1,1-1,2 9,-2-13,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,0-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,6-1,-5 1,1-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,0 0,1-1,-1 0,0 0,-1 0,1 0,0 0,4-6,-6 5,0 1,0-1,-1 0,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 1,-1-1,-4-6,3 6,-1 0,1 0,-1 0,-1 0,1 1,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,-1 0,1 1,0 0,-1-1,-8 1,-40-1,30 2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:03:55.243"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 80,'0'-2,"1"1,-1-1,1 1,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,1-2,29-15,-29 16,7-3,35-18,-42 22,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,0 1,-1 0,1 0,0 0,4 1,-6 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 1,-11 49,9-44,-5 18,0-1,-1 0,-2 0,-15 29,17-42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1002.54">425 53,'-5'0,"0"1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 1,0-1,0 1,0-1,0 1,1 0,-1 1,1-1,0 0,0 1,0 0,0 0,0 0,1 0,-3 6,2-4,0-1,0 1,1 0,0 0,0 0,1 0,-1 1,1-1,1 0,-1 1,1-1,0 0,0 1,1-1,0 0,2 10,-2-15,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 1,3-1,-1 0,0 0,0-1,0 0,0 1,0-1,0 0,0-1,0 1,-1 0,1-1,2-1,9-7,-1 0,-1-1,14-15,-25 26,8-11,1 0,-1 0,-1 0,10-16,-17 24,0 1,0 0,0 0,0-1,0 1,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 1,-1-5,1 5,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-3 0,-15-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1572.37">610 292,'0'4,"-5"2,-5 0,-2 3,-3 0,-3-1,1 2,-1 0,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3362.25">928 27,'5'0,"0"0,1 1,-1-1,0 1,0 0,1 1,-1-1,0 1,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,5 5,-7-6,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-2 1,1-1,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,-1 0,-3 4,3-4,0 1,0-1,-1 1,0-1,1 0,-1 0,0-1,0 1,-1 0,1-1,0 0,-1 0,0 0,1 0,-1-1,0 1,0-1,-7 1,41-4,-23 0,1 2,-1-1,1 1,0 0,-1 0,1 1,8 2,-12-3,-1 1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,4 5,-5-6,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,-1 3,-1-1,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1-1,1 0,-1 1,0-1,-6 1,-24 2,-1-1,-38-2,45-1,16 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:04:02.953"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 28,'-10'0,"1"1,0 0,0 0,0 1,0 0,0 0,0 1,-11 6,17-8,1 0,0 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,0-1,-1 1,1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,1-1,-1 1,2 4,-2-6,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,1-1,1 1,0-1,0 0,0-1,0 1,0-1,0 0,-1 0,1 0,0 0,5-3,5-3,0-1,-1-1,0 0,17-14,-26 18,1 1,0-1,-1 0,0 0,0 0,-1-1,1 0,-1 1,0-1,-1 0,1-1,1-8,-6 35,1 0,2 38,0-9,-1-32,0 0,-1 0,-1 0,-1 0,-5 18,7-31,-1 1,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1-1,-7 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="556.56">318 319,'0'4,"0"7,0 5,0 5,0 3,-5-3,-1 1,-4-5,-5-4,0-1,-2-2,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3545.54">742 28,'-5'1,"0"0,1 0,-1 1,0 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,1 0,-1 1,1-1,0 1,-6 7,1 0,1 0,-1 0,2 0,0 1,-6 15,10-19,0 1,1-1,0 0,1 1,-1-1,2 0,-1 1,3 11,-2-18,-1 0,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,4 4,-3-4,-1-1,0 1,1-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,1-2,5-2,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,0-1,-1 0,4-8,-3 4,-1 0,0 0,0 0,-1 0,-1 0,0-1,-1 1,0-15,-3 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4707.97">1006 1,'5'5,"1"0,0-1,1 0,-1 0,1 0,0-1,0 0,0 0,14 3,25 12,-44-17,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 3,-1-1,0 0,0 0,-1 0,1 0,-1 0,0 0,0-1,-1 1,1 0,-1-1,0 1,-2 4,-5 5,-1 0,0-1,0 0,-1-1,-21 17,-11 3,22-16,-36 32,45-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5351.19">980 186,'4'0,"2"4,4 3,5-2,5 0,2-2,3-1,2 0,-4-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:04:12.794"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">184 1,'-6'1,"1"0,0 0,-1 0,1 1,0 0,0 0,0 0,0 1,0 0,0 0,1 0,0 0,-1 1,1 0,1 0,-6 6,-4 5,1 1,1-1,-13 26,18-30,0 1,1 0,0 0,1 1,0 0,-2 14,6-24,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,0-1,0-1,0 1,0 0,1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,0 0,2 1,2-1,1 0,-1 0,0-1,1 0,-1 0,0-1,0 0,1 0,-1-1,0 1,0-2,7-2,-11 4,-1 0,1 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,0 0,1 0,-1 0,0-1,-1 1,1-3,-1 4,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,-3 0,-49-8,30 9</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:04:10.947"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">99 6,'-4'0,"0"0,0 0,0 0,0 1,0 0,0 0,0 0,0 0,0 0,0 1,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,2 1,-1 0,0 0,0 0,1 0,0 1,-1-1,1 1,1-1,-1 1,0 0,1 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 6,0-7,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 1,-1-1,1-1,-1 1,1 0,-1-1,1 1,0-1,-1 0,1 1,0-1,-1-1,1 1,4-1,-1 0,1 0,-1 0,0 0,1-1,-1 0,0 0,0-1,-1 0,1 0,0 0,-1-1,0 1,0-1,0-1,0 1,5-7,-6 4,0 0,0-1,0 0,-1 1,3-12,-5 17,-1-1,1 0,0 0,-1 1,1-1,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,0-1,-3-4,4 7,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,-6 14,0 17,7 39,0-56,0 0,-1 0,-1-1,0 1,-1 0,-4 15,3-24,-1 1,1-1,-1 0,0 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,-1 0,1-1,-1 0,1 0,-1-1,-12 3,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="511.01">284 271,'0'4,"0"7,0 5,0 5,-5-2,-1 1,-4-3,-1 0,-2-2,0-5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:04:16.905"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 231,'0'-5,"1"1,0-1,0 0,0 1,0-1,1 1,0 0,0 0,0-1,0 1,1 0,-1 1,4-5,48-47,-26 28,-28 26,0 1,0-1,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,2 1,-1 1,0 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 4,-10 61,-2-20,-1 2,-8 65,21-104</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="997.86">371 126,'-2'0,"0"1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0 1,-18 39,15-32,-10 20,-19 48,31-73,1 1,-1-1,1 1,0 0,1-1,-1 1,1-1,0 1,1 0,-1-1,3 10,-3-13,1 0,0 0,0-1,0 1,-1 0,2 0,-1-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0-1,0 1,3 1,-1-1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,5-1,-2 0,-1 0,1 0,-1-1,1 0,-1 0,0-1,-1 0,1 0,0 0,-1-1,0 1,6-9,-3 0,-1 0,-1-1,-1 0,0 0,5-19,-8 25,0 0,-1 0,0 0,0 0,-1 0,0-1,0 1,-1 0,0 0,-1 0,-2-9,-6 1,-2 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1589.46">636 390,'0'4,"0"7,0 5,0 5,-5-1,-1 0,-4-3,-1 0,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3291.69">900 20,'51'-10,"-43"8,0 0,0 0,0 1,0-1,0 2,11 0,-17 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 3,3 10,0 1,-2 0,0 0,-1 0,0 0,-2 0,-3 19,4-29,0 0,0 0,-1 0,0-1,0 1,0 0,-1-1,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,0 0,-1 1,1-2,-1 1,0 0,-1-1,-7 4,-2-1,-41 13,54-18,-1 0,1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0-1,0 1,0 0,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,-2-2,3 3,1 0,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,2 0,36-2,-28 6,-1 1,1-1,-1 2,1-1,-2 2,1-1,15 15,-18-14,0-1,1 0,0-1,0 0,0 0,1 0,0-1,0 0,0 0,0-1,0 0,1-1,10 2,31-1,-28-4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:19.448"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">85 20,'-3'0,"0"0,0 0,1 0,-1 1,0 0,0-1,1 1,-1 0,1 0,-1 0,1 1,-1-1,1 1,0-1,-1 1,1 0,0 0,0-1,-2 4,1 0,-1 0,1 1,0-1,1 0,-1 1,1 0,0 0,-1 9,0 3,0 0,2 0,0 1,4 35,-2-49,0-1,-1 0,2 0,-1 0,0 0,1 0,0 0,0-1,0 1,0 0,1-1,-1 0,1 1,0-1,0 0,0 0,1-1,-1 1,0-1,1 0,0 1,0-1,-1-1,1 1,0-1,0 1,1-1,-1-1,0 1,0 0,0-1,1 0,-1 0,0 0,0-1,0 1,1-1,-1 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,0-1,-1 1,0-1,1 0,-1 0,3-3,0-1,-1 0,0 0,0-1,-1 0,0 0,0 0,-1 0,0 0,0-1,-1 1,0-1,-1 0,1 0,-1-15,-1 18,0 1,-1-1,1 1,-1-1,0 1,0-1,-1 1,1-1,-1 1,-1 0,1 0,-1 0,1 0,-2 0,1 1,0-1,-1 1,0 0,0 0,0 0,0 0,-1 1,-8-5,-22-10,20 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="906.18">376 311,'0'4,"0"6,-5 6,-5 1,-2 1,2-3</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:22.245"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">81 2,'-3'-1,"0"1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 1,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,0 6,0-6,0 0,1 1,-1-1,1 1,-1-1,1 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0-1,1 0,-1 1,0-1,0-1,1 1,-1 0,0-1,0 1,-1-1,1 0,0 0,0 0,-1-1,0 1,1-1,-1 1,3-6,2-1,-2-1,1 1,-1-2,-1 1,0 0,0-1,-1 0,2-15,-7 96,4-49,-2 0,-1 0,-4 27,4-42,0-1,-1 1,1-1,-1 0,0 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,-1-1,-7 7,-16 8,19-12,-1 0,1 0,-1-1,0 0,-13 4,3-4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:26.887"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">65 22,'-3'0,"0"1,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,2 4,-3-6,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,15-12,10-25,-24 34,7-14,-8 12,1 1,0 0,0 0,0 0,0 0,1 0,0 1,0-1,0 1,0 0,4-4,-6 7,0 0,0 0,0 1,1-1,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1-1,2 3,12 26,-3-4,-2 1,-1 0,0 0,4 39,-10-54,-1 0,-1 0,0-1,0 1,-1 0,0 0,-1-1,-1 1,1-1,-2 1,1-1,-1 0,-1 0,-7 11,10-18,-1 0,0 1,0-1,0-1,-1 1,1 0,-1-1,0 1,1-1,-1 0,0-1,0 1,0 0,-1-1,1 0,-6 1,2-1,0 0,0-1,1 0,-1 0,0 0,0-1,1 0,-11-4,0-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:24.589"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">102 3,'-1'4,"-1"-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,-1 1,0-1,1-1,-1 1,-6 4,-12 15,15-10,1 0,0 0,0 0,2 1,-1 0,2 0,0 0,-1 14,-3 11,5-30,0 0,0-1,1 1,0-1,0 1,1 0,-1-1,4 10,-4-15,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1-1,0 1,3 1,-2-1,0-1,0 0,1 1,-1-1,0 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 0,0 0,4-2,4-2,-1 0,0 0,0-1,0-1,0 1,-1-1,0-1,-1 0,0 0,0 0,0-1,-1 0,-1 0,1 0,-1-1,-1 0,0 0,0 0,-1-1,-1 1,1-1,-2 1,1-1,-1-15,-1 16,-5-42,5 49,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,-4-1,-11-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="563.61">393 320,'0'4,"-5"2,-5 5,-2 4,-3 0,2 2,-3-2,2 1,-1-3,2-7,4-5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:46.550"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">238 21,'-1'-1,"1"0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,-37 5,33-3,1 1,-1 0,1 0,0 0,0 0,0 1,0 0,1 0,0 1,0-1,-4 6,-39 63,19-27,23-39,1 0,0 0,0 0,1 0,0 0,0 1,1-1,0 1,-2 9,4-15,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,4 1,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,-1 0,1-1,-1 0,0 1,0-1,0-1,0 1,-1 0,1-1,-1 0,0 0,0 0,0 0,-1 0,0-1,4-6,0-7,-1 1,0-1,-1 1,-1-1,0 0,-2-1,0-25,-1 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="552.53">291 338,'0'4,"-5"2,-5 0,-6 3,-1 5,-1 0,-2-3,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266.24">741 74,'-5'0,"0"0,0 1,1-1,-1 1,0 1,1-1,-1 0,1 1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 1,0 0,0 0,-3 8,0 0,0 1,2 0,-1 0,2 0,0 0,0 1,0 19,2-29,1 0,-1 0,1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,1 0,-1 1,0-1,1 0,5 4,-5-5,0-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,5-4,1-2,-1-1,0 0,0 0,-1 0,0-1,-1 0,0-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-1-1,2-21,-6 13,-3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3399.01">1085 47,'-1'0,"0"0,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 2,-6 38,4-29,-13 31,12-38,0 0,1 0,0 1,0-1,1 1,-2 6,3-11,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,1 1,34 6,-14-3,-21-4,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,-1 1,-2 2,1 0,-1 0,0 0,0-1,0 0,-1 1,1-2,-1 1,0 0,1-1,-9 2,-77 8,45-7,42-5,1 1,-1-1,1 0,0 0,-1 0,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-4-2,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3976.81">1085 47,'4'0,"7"0,5 0,4 0,9 0,8-5,6-1,5 1,0 0,-10-2,-10-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:52.244"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">174 89,'-7'0,"1"1,-1 1,1-1,0 1,-1 0,1 1,0-1,1 1,-1 0,0 1,1-1,-1 1,1 0,0 0,1 1,-1 0,-5 7,1-2,1 1,1 1,-1-1,2 1,0 0,0 0,-6 23,11-33,1-1,-1 1,1 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,1-1,0 2,2-1,-1 0,0 1,1-2,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,5 0,4 0,-1 0,0-1,0-1,1 0,-1-1,23-5,-30 4,0 1,0-1,0 1,0-2,0 1,-1 0,0-1,1 0,-1 0,-1 0,1 0,0-1,-1 1,0-1,0 0,-1 0,4-9,-4 10,-1 0,1-1,-1 1,0-1,0 1,-1-1,0 1,1-1,-1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,0 0,0 0,-5-7,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.4">254 327,'0'4,"0"7,-5 1,-1 2,-4 0,-1 2,-2-2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1919.35">571 89,'-2'0,"0"1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1 2,-14 31,15-32,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,1-1,-1 1,0 0,0-1,1 0,2 2,0-2,0 1,0-1,0 0,0 0,0-1,0 1,1-1,-1 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 0,9-5,-7 2,-1 1,0-1,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,0 1,-1-1,1 0,-1 1,0-1,-1 0,2-13,-3 17,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,1-1,-1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,-5 1,3 0,0 0,-1 1,1-1,0 1,-1 1,-10 3,9-2,-11 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3187.97">1021 36,'-4'1,"0"0,1 0,-1 0,1 1,0-1,-1 1,1 0,0 0,0 0,0 1,0-1,1 1,-1-1,0 1,1 0,0 0,0 0,0 1,0-1,-1 4,-4 6,1-1,0 1,1 0,-4 17,8-28,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,0 2,-1-3,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,-1 0,2 0,5 0,0-1,-1 0,1 0,0-1,-1 0,7-3,31-5,-43 10,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 3,-2 2,0 1,0-1,-1 0,0 0,0 0,0 0,-1-1,-6 7,5-7,1-1,-1 0,0-1,0 0,0 0,0 0,-1 0,1-1,-1 0,1-1,-1 1,0-1,0 0,0-1,0 0,0 0,1 0,-1-1,-7-2,-3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3752.03">995 63,'4'0,"7"0,0-5,4-1,3 0,4 2,2 0,1 2,2-3,0-2,0 2,-5-4,-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:58.071"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">93 187,'-3'0,"1"0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 5,-4 8,0 0,-6 31,1-5,10-38,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,0 0,0-1,0 1,1 0,-1-1,3 7,-2-8,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1-1,0 1,4-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,-1-1,1 1,-1-1,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,0 0,3-11,-2 9,-2 1,1-1,-1 0,0 0,0-1,-1 1,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0 0,-1 1,1-1,-1 0,-1 1,1 0,-8-9,-1 0,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="621.5">384 425,'-5'0,"-1"4,-4 2,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1872.07">754 54,'-3'0,"1"1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,-1 3,-25 39,23-37,-1 6,-1 0,2 0,-1 1,-4 23,8-30,0 0,1 0,0 0,1 0,0 0,0 0,0 0,1 0,0 0,0 0,4 10,-4-14,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,3-1,-1 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1 0,4-6,0-3,-1 0,0 0,-1-1,-1 0,0 0,0 0,2-21,-5 25,0 0,0 0,-1 1,0-1,-1 0,0 0,-1 0,1 0,-2 1,1-1,-1 1,-6-12,-2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3239.75">1072 1,'0'14,"0"23,-1-1,-8 51,9-86,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,2 0,5 1,1 1,-1-2,0 1,14 0,-16-2,0 0,0 1,0 0,0 0,0 0,-1 1,8 2,-11-3,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1-1,1 1,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,-1 0,1 1,0-1,-1 0,0 3,-1-2,0 1,1-2,-1 1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-1 1,1-2,-1 1,-5 1,-42 1,-24 5,36-4,26-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3858.2">1125 28,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,-4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:03:04.225"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 67,'-3'0,"0"1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,-2 5,-1-2,1 1,1 1,-1-1,1 0,0 1,-2 7,1 0,1 1,1-1,0 1,1 0,0 0,1-1,1 1,1 0,0 0,4 16,-4-29,-1 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,3-2,1 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 1,0-2,0 1,0 0,6-8,-4 3,0 0,0-1,-1 0,-1-1,0 1,9-22,-13 28,-1 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-6-6,6 6,-66-65,62 63,1 1,-1 0,-1 0,1 0,-1 1,1-1,-1 2,0-1,0 1,-13-3,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.34">298 252,'0'4,"0"7,-5 5,0 5,-6-1,-4 0,-4 1,0 2,0-3,3 0,-1-4,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2033.99">536 41,'-2'0,"0"0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-2 2,1 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,1 8,-1-6,1 0,0 0,1 0,0-1,0 1,0 0,1 0,0 0,0-1,1 1,-1-1,2 0,-1 1,5 5,-5-9,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,0 1,1-1,-1 1,0-1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 0,9-3,-5 1,-1 0,0-1,0 1,0-2,0 1,-1-1,0 0,0 0,0-1,0 0,-1 0,0 0,5-8,-6 8,-1 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,-1 0,1-1,-1 1,-1 0,1-13,-2 17,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-4 1,-18-1,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3091.98">1065 14,'-3'0,"-1"1,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-2 3,-33 59,30-51,7-13,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 0,1 0,10 2,0 0,0-1,25-2,-14 0,-22 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 0,-1 0,0 0,-1 0,1 1,-1 2,-1 3,0 0,-1 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,-7 9,0-4,0-1,0 0,-1 0,0-1,-27 14,24-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3652.41">1039 41,'4'0,"7"0,9 0,12 0,8 0,7-5,4-1,3-4,-4-1,-10 2</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A45C4F04-57E3-453C-A931-0ADFB1656196}" name="Возраст_1_го_ребёнка" displayName="Возраст_1_го_ребёнка" ref="A3:A112" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A3:A112" xr:uid="{F7355CAF-D7DF-4047-B615-B5852A22CC89}">
@@ -6946,6 +9153,19 @@
     <tableColumn id="2" xr3:uid="{5147B122-4B52-48C5-8577-6B849488C0FB}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D7650D0E-342C-4621-98B2-393E4229402B}" name="Возраст_детей2" displayName="Возраст_детей2" ref="A6:A101" totalsRowShown="0" headerRowCellStyle="Обычный 2" dataCellStyle="Обычный 2">
+  <autoFilter ref="A6:A101" xr:uid="{CD7AE642-6C0B-49D1-8F5F-3087D7F8D5CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:A101">
+    <sortCondition ref="A308:A403"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{409E97EE-3F8A-4879-A579-727C3EBB7D57}" name="Возраст детей" dataCellStyle="Обычный 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -9747,8 +11967,8 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9967,17 +12187,17 @@
         <v>163</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
     </row>
     <row r="29" spans="1:15" ht="93" customHeight="1">
       <c r="A29" s="27" t="s">
@@ -9996,15 +12216,15 @@
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
     </row>
     <row r="30" spans="1:15" ht="162" customHeight="1">
       <c r="A30" s="27" t="s">
@@ -10021,29 +12241,29 @@
         <v>169</v>
       </c>
       <c r="E30" s="27"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
     </row>
     <row r="31" spans="1:15">
       <c r="F31" s="17"/>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
@@ -10280,8 +12500,8 @@
   </sheetPr>
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10467,7 +12687,7 @@
         <v>73</v>
       </c>
       <c r="O8" s="44">
-        <f>SQRT('2 Исследовательский анализ дан'!C28)</f>
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
         <v>4.0927926709893789</v>
       </c>
       <c r="P8" s="27" t="s">
@@ -10852,11 +13072,11 @@
       <c r="M29" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="N29" s="60" t="s">
+      <c r="N29" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
       <c r="U29" s="55" t="s">
         <v>149</v>
       </c>
@@ -12027,10 +14247,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A19:I75"/>
+  <dimension ref="A19:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12098,29 +14318,29 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="B34" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="59">
         <f>_xlfn.NORM.S.INV((F30+1)/2)</f>
         <v>1.6448536269514715</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="62" t="s">
+    <row r="37" spans="1:11">
+      <c r="B37" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E37" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="60" t="s">
         <v>197</v>
       </c>
       <c r="H37" t="s">
@@ -12131,42 +14351,58 @@
         <v>4.0927926709893789</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="63" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="61" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="64">
+    <row r="39" spans="1:11">
+      <c r="B39" s="62">
         <f>F21-D34*I37/ SQRT(E28)</f>
         <v>8.9198330856791355</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="64">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="62">
         <f>F21+D34*I37/ SQRT(E28)</f>
         <v>10.30121954589981</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="H39" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74">
+        <f>F39-B39</f>
+        <v>1.3813864602206749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="H40" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="B41" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="B43" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:7">
       <c r="B68" t="s">
         <v>208</v>
       </c>
@@ -12175,7 +14411,7 @@
         <v>4.0927926709893789</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:7">
       <c r="B69" t="s">
         <v>201</v>
       </c>
@@ -12184,7 +14420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:7">
       <c r="B70" t="s">
         <v>202</v>
       </c>
@@ -12195,7 +14431,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:7">
       <c r="B71" t="s">
         <v>204</v>
       </c>
@@ -12204,7 +14440,7 @@
         <v>1.2906227080477188</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:7">
       <c r="B72" t="s">
         <v>207</v>
       </c>
@@ -12213,45 +14449,819 @@
         <v>9.6105263157894729</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="62" t="s">
+    <row r="73" spans="2:7">
+      <c r="B73" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="62" t="s">
+      <c r="D73" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="62" t="s">
+      <c r="E73" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="62" t="s">
+      <c r="F73" s="60" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="64">
+    <row r="75" spans="2:7">
+      <c r="B75" s="62">
         <f>C72-C71*C68/SQRT(C69)</f>
         <v>9.0685787816934607</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D75" s="66">
+      <c r="D75" s="64">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
-      <c r="E75" s="65" t="s">
+      <c r="E75" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="F75" s="64">
+      <c r="F75" s="62">
         <f>C72+C71*C68/SQRT(C69)</f>
         <v>10.152473849885485</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="D77" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74">
+        <f>F75-B75</f>
+        <v>1.0838950681920245</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="D78" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="74"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="C83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="C85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="C86" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2BEC05-E3F5-4E5E-BD9E-C7E1BC79DF4C}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:V101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="32.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="T1" s="31"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="T3" s="31"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75">
+      <c r="A5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="12">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9">
+        <f>COUNTA(Возраст_детей2[Возраст детей])</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>215</v>
+      </c>
+      <c r="U13" s="32"/>
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="21.75">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="71"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" s="58"/>
+      <c r="K27" s="54"/>
+      <c r="S27" s="17"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="J28" s="58"/>
+      <c r="K28" s="54"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="S29" s="17"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="S31" s="17"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1">
+        <v>7</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="53"/>
+      <c r="K33" s="54"/>
+      <c r="S33" s="17"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="17"/>
+      <c r="K35" s="14"/>
+      <c r="S35" s="17"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="S37" s="17"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="N38" s="38"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="S39" s="17"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="S41" s="17"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+      <c r="S43" s="17"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="S45" s="17"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75">
+      <c r="A47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="K47" s="17"/>
+      <c r="S47" s="17"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75">
+      <c r="A49" s="1">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>251</v>
+      </c>
+      <c r="S49" s="37"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>252</v>
+      </c>
+      <c r="T50" s="12"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="T51" s="12"/>
+      <c r="V51" s="17"/>
+    </row>
+    <row r="52" spans="1:22" ht="15.75">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="S52" s="36"/>
+      <c r="T52" s="12"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>254</v>
+      </c>
+      <c r="S53" s="36"/>
+      <c r="T53" s="12"/>
+    </row>
+    <row r="54" spans="1:22" ht="15.75">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L31:N31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E36" location="'Построение дов. интервала'!A1" display="Рассчёты на листе &quot;Построение дов. интервала&quot;" xr:uid="{85BA461C-1630-4F9D-9084-C19BFF16F862}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
+++ b/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\6 Точечное и доверительное оценивание\2 Доверительные интервалы для среднего\Задание 4 Продолжение исследования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FF138-A009-4066-8BA0-80C57AAF644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995570E9-077A-44F9-B637-277B59453498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="292">
   <si>
     <t>Частота</t>
   </si>
@@ -1042,6 +1042,119 @@
   </si>
   <si>
     <t>4) Рисуночки</t>
+  </si>
+  <si>
+    <t>5) Некоторые студенты считают, что 90% доверительный интервал содержит 90% данных.
+Используйте вашу выборку и подсчитайте,
+сколько значений данных находится в пределах доверительного интервала.
+Какой это процент?
+Этот процент близок к 90%?
+Объясните, почему этот процент должен или не должен быть близок к 90%.</t>
+  </si>
+  <si>
+    <t>Доверительный интервал при Нормальном Распределении имеет границы</t>
+  </si>
+  <si>
+    <t>[8.92; 10.3]</t>
+  </si>
+  <si>
+    <t>У меня в этом промежутке находится 7 значений</t>
+  </si>
+  <si>
+    <t>Объем выборки n = 95</t>
+  </si>
+  <si>
+    <t>7 от 95 это 7.37%</t>
+  </si>
+  <si>
+    <t>Этот процент далёк от 90%</t>
+  </si>
+  <si>
+    <t>Процент данных содержащихся в пределах доверительного интервала может сильно отличаться от % площади, которые покрывает этот интервал.</t>
+  </si>
+  <si>
+    <t>Это связано с тем, что данные могут располагаться по разному в рамках заданного интервала.</t>
+  </si>
+  <si>
+    <t>Их расположение зависит от распределения, по которому они размещаются.</t>
+  </si>
+  <si>
+    <t>6) Что такое доверительный интервал по простому?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доверительный интервал - это интервал, который можно задать для того, чтобы гарантировать что </t>
+  </si>
+  <si>
+    <t>в разных ситуациях.</t>
+  </si>
+  <si>
+    <t>некоторый параметр лежит в заданом диапозоне.</t>
+  </si>
+  <si>
+    <t>Гарантия даётся с разным кол. процентов вероятности, поэтому размер доверительного интервала выбирается по разному</t>
+  </si>
+  <si>
+    <t>7) Доверительный интервал для данного исследования</t>
+  </si>
+  <si>
+    <t>В моём исследовании доверительный интервал показывает, что скорее всего возраст ребенка в лагере будет принадлежать диапозону</t>
+  </si>
+  <si>
+    <t>от 8.92</t>
+  </si>
+  <si>
+    <t>до 10.3</t>
+  </si>
+  <si>
+    <t>лет</t>
+  </si>
+  <si>
+    <t>3) Анализ доверительного оценивания</t>
+  </si>
+  <si>
+    <t>Уровень доверия a</t>
+  </si>
+  <si>
+    <t>Граница ошибки</t>
+  </si>
+  <si>
+    <t>Доверительный интервал</t>
+  </si>
+  <si>
+    <t>Буду проводить оценки для Нормального Распределения, т.к. оно дало мне лучшие результаты, нежели Распределение Стьюдента</t>
+  </si>
+  <si>
+    <t>z-оценка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Математичческое ожидание μ = </t>
+  </si>
+  <si>
+    <t>Нижняя граница Дов. Интервала (x¯ -z σ/√n)</t>
+  </si>
+  <si>
+    <t>Верхняя граница Дов. Интервала (x¯ + z σ/√n)</t>
+  </si>
+  <si>
+    <t>1) Таблица</t>
+  </si>
+  <si>
+    <t>2. Что происходит с границей ошибки по мере увеличения уровня доверия?</t>
+  </si>
+  <si>
+    <t>Увеличивается или уменьшается длина доверительного интервала?</t>
+  </si>
+  <si>
+    <t>Объясните, почему это происходит.</t>
+  </si>
+  <si>
+    <t>Граница ошибки это и есть размер интервала доверия (разница между его границами)</t>
+  </si>
+  <si>
+    <t>Поэтому при росте доверительного интервала граница ошибки также растёт.</t>
+  </si>
+  <si>
+    <t>0) Собранные данные</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1391,13 +1504,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1529,15 +1655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1552,6 +1669,28 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1559,21 +1698,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1617,6 +1741,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7097,8 +7236,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>488667</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>791226</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152641</xdr:rowOff>
     </xdr:to>
@@ -7163,8 +7302,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>115155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Рукописный ввод 10">
@@ -7183,7 +7322,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Рукописный ввод 10">
@@ -7268,7 +7407,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>885423</xdr:colOff>
+      <xdr:colOff>392364</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>104738</xdr:rowOff>
     </xdr:to>
@@ -7355,8 +7494,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>256852</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2587675</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>57096</xdr:rowOff>
     </xdr:to>
@@ -7460,8 +7599,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>452900</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2111371</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -7526,8 +7665,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>86505</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Рукописный ввод 19">
@@ -7546,7 +7685,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Рукописный ввод 19">
@@ -7591,8 +7730,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>56985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Рукописный ввод 20">
@@ -7611,7 +7750,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Рукописный ввод 20">
@@ -7656,8 +7795,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>30345</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Рукописный ввод 23">
@@ -7676,7 +7815,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Рукописный ввод 23">
@@ -7721,8 +7860,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>33225</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Рукописный ввод 24">
@@ -7741,7 +7880,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Рукописный ввод 24">
@@ -7786,8 +7925,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>92925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Рукописный ввод 31">
@@ -7806,7 +7945,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Рукописный ввод 31">
@@ -7851,8 +7990,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>100845</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Рукописный ввод 37">
@@ -7871,7 +8010,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Рукописный ввод 37">
@@ -7916,8 +8055,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>63045</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Рукописный ввод 43">
@@ -7936,7 +8075,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Рукописный ввод 43">
@@ -7970,19 +8109,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>387975</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1396505</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>128265</xdr:rowOff>
+      <xdr:rowOff>83442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>278055</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1891703</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>101565</xdr:rowOff>
+      <xdr:rowOff>56742</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Рукописный ввод 49">
@@ -7996,12 +8135,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="13237200" y="11939265"/>
-            <a:ext cx="499680" cy="163800"/>
+            <a:off x="13196299" y="11928060"/>
+            <a:ext cx="495198" cy="163800"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Рукописный ввод 49">
@@ -8046,8 +8185,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114405</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Рукописный ввод 50">
@@ -8066,7 +8205,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Рукописный ввод 50">
@@ -8111,8 +8250,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>88845</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Рукописный ввод 57">
@@ -8131,7 +8270,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Рукописный ввод 57">
@@ -8176,8 +8315,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>103245</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Рукописный ввод 61">
@@ -8196,7 +8335,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Рукописный ввод 61">
@@ -8241,8 +8380,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>73005</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="67" name="Рукописный ввод 66">
@@ -8261,7 +8400,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="67" name="Рукописный ввод 66">
@@ -8306,8 +8445,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>74085</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Рукописный ввод 73">
@@ -8326,7 +8465,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Рукописный ввод 73">
@@ -8371,8 +8510,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>38805</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Рукописный ввод 76">
@@ -8391,7 +8530,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Рукописный ввод 76">
@@ -8431,13 +8570,13 @@
       <xdr:rowOff>102585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57585</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2388408</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>63645</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="78" name="Рукописный ввод 77">
@@ -8456,7 +8595,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="78" name="Рукописный ввод 77">
@@ -8501,8 +8640,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>69405</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="Рукописный ввод 82">
@@ -8521,7 +8660,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="Рукописный ввод 82">
@@ -8637,7 +8776,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">133 31,'-1'-1,"0"-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 1,-2 1,1 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 0,2 7,1-1,0-1,1 1,0-1,1 0,0 0,1 0,-1 0,2-1,-1 0,10 8,-10-10,1 1,-1 0,0 1,-1-1,1 1,-2 0,1 1,-1-1,0 1,-1-1,0 1,3 12,-6-19,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,-4 0,1 0,0 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,0-1,1 0,-1 0,1 0,-1-1,1 1,-6-6,5 3,0-1,0 1,0-1,1 0,-1-1,2 1,-1-1,1 0,0 0,0 0,0 0,1 0,1-1,-1 1,1-1,0 1,1-10,0 11,1 0,0 0,0 0,0 0,1 0,0 1,0-1,1 1,-1-1,1 1,0 0,1 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 1,0-1,0 1,6-4,6-1,-10 4,1 1,-1-1,-1 0,1-1,7-6,-12 10,-1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,-1-1,-8-12</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="854.11">318 349,'0'4,"0"7,0 5,0 5,0 3,-5-3,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4280.73">636 58,'-3'0,"1"0,-1 1,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 5,-1-4,0 0,1-1,0 1,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 0,0 1,-1-1,1 0,0 0,1 0,3 2,-1-2,0 0,0 0,0-1,0 1,0-2,0 1,0 0,0-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,-1 0,1-1,3-2,-4 2,-1 1,0-1,0 1,0-1,0 0,0 0,-1 0,0 0,1-1,-1 1,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,-2-7,3 11,0-1,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,-1 1,1 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-2-1,-6 13,1 26,16 28,-6-53,0 0,-1 0,0 19,-2-28,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 1,0-1,-6 5,4-3,-1 0,0-1,0 0,-1 0,0 0,1-1,-13 6,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4280.72">636 58,'-3'0,"1"0,-1 1,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 5,-1-4,0 0,1-1,0 1,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 0,0 1,-1-1,1 0,0 0,1 0,3 2,-1-2,0 0,0 0,0-1,0 1,0-2,0 1,0 0,0-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,-1 0,1-1,3-2,-4 2,-1 1,0-1,0 1,0-1,0 0,0 0,-1 0,0 0,1-1,-1 1,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,-2-7,3 11,0-1,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,-1 1,1 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-2-1,-6 13,1 26,16 28,-6-53,0 0,-1 0,0 19,-2-28,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 1,0-1,-6 5,4-3,-1 0,0-1,0 0,-1 0,0 0,1-1,-13 6,-1-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6231.1">980 58,'8'0,"0"1,0 0,0 1,0 0,0 0,0 1,0 0,-1 0,0 1,1 0,-1 0,0 1,-1-1,12 11,-15-11,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 1,0-1,0 1,0-1,-1 1,1 0,-1-1,0 1,0 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1 0,0 0,-3 5,2-7,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,-1-1,0 1,1-1,-1 0,-4 1,-67 13,25-16,48 0,1 1,-1 0,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,-1-3,2 3,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,0 1,37 11,-24 0,0 0,22 27,20 17,-51-52,0 0,0 0,0-1,0 0,0 0,1 0,0-1,-1 1,12 2,-2-4</inkml:trace>
 </inkml:ink>
 </file>
@@ -8725,9 +8864,9 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">133 28,'-10'0,"1"1,0 0,0 0,0 1,0 0,0 0,0 1,-11 6,17-8,1 0,0 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,0-1,-1 1,1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,1-1,-1 1,2 4,-2-6,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,1-1,1 1,0-1,0 0,0-1,0 1,0-1,0 0,-1 0,1 0,0 0,5-3,5-3,0-1,-1-1,0 0,17-14,-26 18,1 1,0-1,-1 0,0 0,0 0,-1-1,1 0,-1 1,0-1,-1 0,1-1,1-8,-6 35,1 0,2 38,0-9,-1-32,0 0,-1 0,-1 0,-1 0,-5 18,7-31,-1 1,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1-1,-7 2,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="556.56">318 319,'0'4,"0"7,0 5,0 5,0 3,-5-3,-1 1,-4-5,-5-4,0-1,-2-2,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="556.54">318 319,'0'4,"0"7,0 5,0 5,0 3,-5-3,-1 1,-4-5,-5-4,0-1,-2-2,2-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3545.54">742 28,'-5'1,"0"0,1 0,-1 1,0 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,1 0,-1 1,1-1,0 1,-6 7,1 0,1 0,-1 0,2 0,0 1,-6 15,10-19,0 1,1-1,0 0,1 1,-1-1,2 0,-1 1,3 11,-2-18,-1 0,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,4 4,-3-4,-1-1,0 1,1-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,1-2,5-2,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,0-1,-1 0,4-8,-3 4,-1 0,0 0,0 0,-1 0,-1 0,0-1,-1 1,0-15,-3 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4707.97">1006 1,'5'5,"1"0,0-1,1 0,-1 0,1 0,0-1,0 0,0 0,14 3,25 12,-44-17,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 3,-1-1,0 0,0 0,-1 0,1 0,-1 0,0 0,0-1,-1 1,1 0,-1-1,0 1,-2 4,-5 5,-1 0,0-1,0 0,-1-1,-21 17,-11 3,22-16,-36 32,45-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4707.96">1006 1,'5'5,"1"0,0-1,1 0,-1 0,1 0,0-1,0 0,0 0,14 3,25 12,-44-17,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 3,-1-1,0 0,0 0,-1 0,1 0,-1 0,0 0,0-1,-1 1,1 0,-1-1,0 1,-2 4,-5 5,-1 0,0-1,0 0,-1-1,-21 17,-11 3,22-16,-36 32,45-33</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5351.19">980 186,'4'0,"2"4,4 3,5-2,5 0,2-2,3-1,2 0,-4-2</inkml:trace>
 </inkml:ink>
 </file>
@@ -8811,7 +8950,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 231,'0'-5,"1"1,0-1,0 0,0 1,0-1,1 1,0 0,0 0,0-1,0 1,1 0,-1 1,4-5,48-47,-26 28,-28 26,0 1,0-1,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,2 1,-1 1,0 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 4,-10 61,-2-20,-1 2,-8 65,21-104</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="997.86">371 126,'-2'0,"0"1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0 1,-18 39,15-32,-10 20,-19 48,31-73,1 1,-1-1,1 1,0 0,1-1,-1 1,1-1,0 1,1 0,-1-1,3 10,-3-13,1 0,0 0,0-1,0 1,-1 0,2 0,-1-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0-1,0 1,3 1,-1-1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,5-1,-2 0,-1 0,1 0,-1-1,1 0,-1 0,0-1,-1 0,1 0,0 0,-1-1,0 1,6-9,-3 0,-1 0,-1-1,-1 0,0 0,5-19,-8 25,0 0,-1 0,0 0,0 0,-1 0,0-1,0 1,-1 0,0 0,-1 0,-2-9,-6 1,-2 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="997.84">371 126,'-2'0,"0"1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0 1,-18 39,15-32,-10 20,-19 48,31-73,1 1,-1-1,1 1,0 0,1-1,-1 1,1-1,0 1,1 0,-1-1,3 10,-3-13,1 0,0 0,0-1,0 1,-1 0,2 0,-1-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0-1,0 1,3 1,-1-1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,5-1,-2 0,-1 0,1 0,-1-1,1 0,-1 0,0-1,-1 0,1 0,0 0,-1-1,0 1,6-9,-3 0,-1 0,-1-1,-1 0,0 0,5-19,-8 25,0 0,-1 0,0 0,0 0,-1 0,0-1,0 1,-1 0,0 0,-1 0,-2-9,-6 1,-2 5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1589.46">636 390,'0'4,"0"7,0 5,0 5,-5-1,-1 0,-4-3,-1 0,2-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3291.69">900 20,'51'-10,"-43"8,0 0,0 0,0 1,0-1,0 2,11 0,-17 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 3,3 10,0 1,-2 0,0 0,-1 0,0 0,-2 0,-3 19,4-29,0 0,0 0,-1 0,0-1,0 1,0 0,-1-1,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,0 0,-1 1,1-2,-1 1,0 0,-1-1,-7 4,-2-1,-41 13,54-18,-1 0,1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0-1,0 1,0 0,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,-2-2,3 3,1 0,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,2 0,36-2,-28 6,-1 1,1-1,-1 2,1-1,-2 2,1-1,15 15,-18-14,0-1,1 0,0-1,0 0,0 0,1 0,0-1,0 0,0 0,0-1,0 0,1-1,10 2,31-1,-28-4</inkml:trace>
 </inkml:ink>
@@ -8952,7 +9091,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">238 21,'-1'-1,"1"0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,-37 5,33-3,1 1,-1 0,1 0,0 0,0 0,0 1,0 0,1 0,0 1,0-1,-4 6,-39 63,19-27,23-39,1 0,0 0,0 0,1 0,0 0,0 1,1-1,0 1,-2 9,4-15,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,4 1,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,-1 0,1-1,-1 0,0 1,0-1,0-1,0 1,-1 0,1-1,-1 0,0 0,0 0,0 0,-1 0,0-1,4-6,0-7,-1 1,0-1,-1 1,-1-1,0 0,-2-1,0-25,-1 21</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="552.53">291 338,'0'4,"-5"2,-5 0,-6 3,-1 5,-1 0,-2-3,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266.24">741 74,'-5'0,"0"0,0 1,1-1,-1 1,0 1,1-1,-1 0,1 1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 1,0 0,0 0,-3 8,0 0,0 1,2 0,-1 0,2 0,0 0,0 1,0 19,2-29,1 0,-1 0,1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,1 0,-1 1,0-1,1 0,5 4,-5-5,0-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,5-4,1-2,-1-1,0 0,0 0,-1 0,0-1,-1 0,0-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-1-1,2-21,-6 13,-3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266.23">741 74,'-5'0,"0"0,0 1,1-1,-1 1,0 1,1-1,-1 0,1 1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 1,0 0,0 0,-3 8,0 0,0 1,2 0,-1 0,2 0,0 0,0 1,0 19,2-29,1 0,-1 0,1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,1 0,-1 1,0-1,1 0,5 4,-5-5,0-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,5-4,1-2,-1-1,0 0,0 0,-1 0,0-1,-1 0,0-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-1-1,2-21,-6 13,-3 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3399.01">1085 47,'-1'0,"0"0,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 2,-6 38,4-29,-13 31,12-38,0 0,1 0,0 1,0-1,1 1,-2 6,3-11,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,1 1,34 6,-14-3,-21-4,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,-1 1,-2 2,1 0,-1 0,0 0,0-1,0 0,-1 1,1-2,-1 1,0 0,1-1,-9 2,-77 8,45-7,42-5,1 1,-1-1,1 0,0 0,-1 0,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-4-2,-5-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3976.81">1085 47,'4'0,"7"0,5 0,4 0,9 0,8-5,6-1,5 1,0 0,-10-2,-10-2</inkml:trace>
 </inkml:ink>
@@ -9044,7 +9183,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">86 67,'-3'0,"0"1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,-2 5,-1-2,1 1,1 1,-1-1,1 0,0 1,-2 7,1 0,1 1,1-1,0 1,1 0,0 0,1-1,1 1,1 0,0 0,4 16,-4-29,-1 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,3-2,1 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 1,0-2,0 1,0 0,6-8,-4 3,0 0,0-1,-1 0,-1-1,0 1,9-22,-13 28,-1 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-6-6,6 6,-66-65,62 63,1 1,-1 0,-1 0,1 0,-1 1,1-1,-1 2,0-1,0 1,-13-3,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.34">298 252,'0'4,"0"7,-5 5,0 5,-6-1,-4 0,-4 1,0 2,0-3,3 0,-1-4,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.32">298 252,'0'4,"0"7,-5 5,0 5,-6-1,-4 0,-4 1,0 2,0-3,3 0,-1-4,3-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2033.99">536 41,'-2'0,"0"0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-2 2,1 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,1 8,-1-6,1 0,0 0,1 0,0-1,0 1,0 0,1 0,0 0,0-1,1 1,-1-1,2 0,-1 1,5 5,-5-9,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,0 1,1-1,-1 1,0-1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 0,9-3,-5 1,-1 0,0-1,0 1,0-2,0 1,-1-1,0 0,0 0,0-1,0 0,-1 0,0 0,5-8,-6 8,-1 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,-1 0,1-1,-1 1,-1 0,1-13,-2 17,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-4 1,-18-1,2 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3091.98">1065 14,'-3'0,"-1"1,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-2 3,-33 59,30-51,7-13,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 0,1 0,10 2,0 0,0-1,25-2,-14 0,-22 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 0,-1 0,0 0,-1 0,1 1,-1 2,-1 3,0 0,-1 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,-7 9,0-4,0-1,0 0,-1 0,0-1,-27 14,24-16</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3652.41">1039 41,'4'0,"7"0,9 0,12 0,8 0,7-5,4-1,3-4,-4-1,-10 2</inkml:trace>
@@ -9107,10 +9246,10 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="11" dataCellStyle="Обычный 2">
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="8" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="10" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="7" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9119,16 +9258,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="3">
       <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9138,7 +9277,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12187,17 +12326,17 @@
         <v>163</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
     </row>
     <row r="29" spans="1:15" ht="93" customHeight="1">
       <c r="A29" s="27" t="s">
@@ -12216,15 +12355,15 @@
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
     </row>
     <row r="30" spans="1:15" ht="162" customHeight="1">
       <c r="A30" s="27" t="s">
@@ -12241,29 +12380,29 @@
         <v>169</v>
       </c>
       <c r="E30" s="27"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
     </row>
     <row r="31" spans="1:15">
       <c r="F31" s="17"/>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
@@ -12500,7 +12639,7 @@
   </sheetPr>
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -13072,11 +13211,11 @@
       <c r="M29" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="N29" s="67" t="s">
+      <c r="N29" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
       <c r="U29" s="55" t="s">
         <v>149</v>
       </c>
@@ -14219,15 +14358,15 @@
     <mergeCell ref="N29:P29"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A99">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
       <formula>$N$42</formula>
       <formula>$N$44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>$N$41</formula>
       <formula>$N$43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
       <formula>$N$44</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14249,8 +14388,8 @@
   </sheetPr>
   <dimension ref="A19:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14375,22 +14514,22 @@
         <f>F21+D34*I37/ SQRT(E28)</f>
         <v>10.30121954589981</v>
       </c>
-      <c r="H39" s="74" t="s">
+      <c r="H39" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74">
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71">
         <f>F39-B39</f>
         <v>1.3813864602206749</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="H40" s="74" t="s">
+      <c r="H40" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
     </row>
     <row r="41" spans="1:11">
       <c r="B41" t="s">
@@ -14487,25 +14626,25 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="D77" s="74" t="s">
+      <c r="D77" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74">
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71">
         <f>F75-B75</f>
         <v>1.0838950681920245</v>
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="D78" s="74" t="s">
+      <c r="D78" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="74"/>
+      <c r="B81" s="71"/>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
@@ -14538,10 +14677,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14549,8 +14688,9 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="46.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
@@ -14580,9 +14720,9 @@
     </row>
     <row r="5" spans="1:22" ht="15.75">
       <c r="A5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>231</v>
       </c>
       <c r="D5" s="14"/>
@@ -14647,7 +14787,7 @@
       <c r="A13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -14663,7 +14803,7 @@
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="66" t="s">
         <v>223</v>
       </c>
     </row>
@@ -14671,7 +14811,7 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="70" t="s">
         <v>216</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -14704,18 +14844,18 @@
       <c r="A18" s="1">
         <v>6</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="67" t="s">
         <v>219</v>
       </c>
     </row>
@@ -14731,13 +14871,13 @@
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="D21" s="71"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:19" ht="15.75">
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="66" t="s">
         <v>233</v>
       </c>
       <c r="K22" s="14"/>
@@ -14746,7 +14886,7 @@
       <c r="A23" s="1">
         <v>6</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="66" t="s">
         <v>226</v>
       </c>
       <c r="S23" s="17"/>
@@ -14780,7 +14920,7 @@
       <c r="A27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="67" t="s">
         <v>228</v>
       </c>
       <c r="J27" s="58"/>
@@ -14818,9 +14958,9 @@
       </c>
       <c r="J31" s="53"/>
       <c r="K31" s="54"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19">
@@ -14842,7 +14982,7 @@
       <c r="A34" s="1">
         <v>8</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="66" t="s">
         <v>248</v>
       </c>
       <c r="J34" s="29"/>
@@ -14863,7 +15003,7 @@
       <c r="C36" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="72" t="s">
         <v>244</v>
       </c>
     </row>
@@ -14874,7 +15014,7 @@
       <c r="C37" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="67" t="s">
         <v>245</v>
       </c>
       <c r="N37" s="29"/>
@@ -14884,9 +15024,9 @@
       <c r="A38" s="1">
         <v>8</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
       <c r="N38" s="38"/>
     </row>
     <row r="39" spans="1:19">
@@ -14949,7 +15089,7 @@
       <c r="A47" s="1">
         <v>8</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="66" t="s">
         <v>249</v>
       </c>
       <c r="K47" s="17"/>
@@ -14992,7 +15132,7 @@
       <c r="A52" s="1">
         <v>9</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="66" t="s">
         <v>253</v>
       </c>
       <c r="S52" s="36"/>
@@ -15012,7 +15152,7 @@
       <c r="A54" s="1">
         <v>9</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="66" t="s">
         <v>255</v>
       </c>
     </row>
@@ -15066,194 +15206,462 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:6" ht="110.25" customHeight="1">
       <c r="A71" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="C71" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="79"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="C73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="C75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="C76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="C77" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="C79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="C80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="C83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="C84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="C86" s="66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="C88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="C90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="C93" s="66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:3" ht="30">
       <c r="A95" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="C95" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="C96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="C97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="C98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>27</v>
       </c>
     </row>
+    <row r="102" spans="1:6">
+      <c r="B102" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75">
+      <c r="B103" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="E103" s="80"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="E104" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="F104" s="74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="B105" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="C105" s="34">
+        <f>_xlfn.NORM.S.INV((B105+1)/2)</f>
+        <v>0.67448975019608193</v>
+      </c>
+      <c r="D105" s="75">
+        <f>$C$111-C105*$C$110/SQRT($C$109)</f>
+        <v>9.3273001997352019</v>
+      </c>
+      <c r="E105" s="75">
+        <f>$C$111+C105*$C$110/SQRT($C$109)</f>
+        <v>9.893752431843744</v>
+      </c>
+      <c r="F105" s="75">
+        <f>E105-D105</f>
+        <v>0.56645223210854212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="C106" s="34">
+        <f t="shared" ref="C106:C108" si="0">_xlfn.NORM.S.INV((B106+1)/2)</f>
+        <v>1.2815515655446006</v>
+      </c>
+      <c r="D106" s="75">
+        <f t="shared" ref="D106:D108" si="1">$C$111-C106*$C$110/SQRT($C$109)</f>
+        <v>9.0723878602726185</v>
+      </c>
+      <c r="E106" s="75">
+        <f t="shared" ref="E106:E108" si="2">$C$111+C106*$C$110/SQRT($C$109)</f>
+        <v>10.148664771306327</v>
+      </c>
+      <c r="F106" s="75">
+        <f t="shared" ref="F106:F108" si="3">E106-D106</f>
+        <v>1.0762769110337089</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" s="34">
+        <v>0.95</v>
+      </c>
+      <c r="C107" s="34">
+        <f t="shared" si="0"/>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="D107" s="75">
+        <f t="shared" si="1"/>
+        <v>8.7875145698197876</v>
+      </c>
+      <c r="E107" s="75">
+        <f t="shared" si="2"/>
+        <v>10.433538061759158</v>
+      </c>
+      <c r="F107" s="75">
+        <f t="shared" si="3"/>
+        <v>1.6460234919393706</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" s="34">
+        <v>0.99</v>
+      </c>
+      <c r="C108" s="34">
+        <f t="shared" si="0"/>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="D108" s="75">
+        <f t="shared" si="1"/>
+        <v>8.5289055364509458</v>
+      </c>
+      <c r="E108" s="75">
+        <f t="shared" si="2"/>
+        <v>10.692147095128</v>
+      </c>
+      <c r="F108" s="75">
+        <f t="shared" si="3"/>
+        <v>2.1632415586770541</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109">
+        <f>COUNTA(Возраст_детей[Возраст детей])</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="12">
+        <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
+        <v>4.0927926709893789</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="B111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="12">
+        <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
+        <v>9.6105263157894729</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" ht="15.75">
+      <c r="B114" s="66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" ht="15.75">
+      <c r="B115" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="59"/>
+    </row>
+    <row r="116" spans="2:16" ht="15.75">
+      <c r="B116" s="66" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" ht="15.75">
+      <c r="B118" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" ht="15.75">
+      <c r="B119" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16">
+      <c r="B122" s="61"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="61"/>
+      <c r="K122" s="61"/>
+      <c r="L122" s="61"/>
+      <c r="M122" s="61"/>
+      <c r="N122" s="61"/>
+      <c r="O122" s="61"/>
+      <c r="P122" s="61"/>
+    </row>
+    <row r="123" spans="2:16">
+      <c r="I123" s="61"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="61"/>
+    </row>
+    <row r="124" spans="2:16">
+      <c r="I124" s="61"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="61"/>
+    </row>
+    <row r="125" spans="2:16">
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="L31:N31"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="D103:E103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E36" location="'Построение дов. интервала'!A1" display="Рассчёты на листе &quot;Построение дов. интервала&quot;" xr:uid="{85BA461C-1630-4F9D-9084-C19BFF16F862}"/>

--- a/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
+++ b/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\6 Точечное и доверительное оценивание\2 Доверительные интервалы для среднего\Задание 4 Продолжение исследования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995570E9-077A-44F9-B637-277B59453498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DD86B7-A7AB-47BB-A24E-1DE94D84643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Первичная обработка данных" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Отчёт 1" sheetId="8" r:id="rId3"/>
     <sheet name="Построение дов. интервала" sheetId="9" r:id="rId4"/>
     <sheet name="Отчёт 2" sheetId="11" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Итого_детей_возраста_1_9_лет">#REF!</definedName>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="298">
   <si>
     <t>Частота</t>
   </si>
@@ -838,9 +839,6 @@
     <t xml:space="preserve">σ = s = </t>
   </si>
   <si>
-    <t>t-оценка = T</t>
-  </si>
-  <si>
     <t xml:space="preserve">n = </t>
   </si>
   <si>
@@ -1155,6 +1153,27 @@
   </si>
   <si>
     <t>0) Собранные данные</t>
+  </si>
+  <si>
+    <t>Известное выборочное стандартное отклонение s =</t>
+  </si>
+  <si>
+    <t>Граница ошибки = расстояние от середины доверительного интеврала, до любой из его границ!</t>
+  </si>
+  <si>
+    <t>T (большое) - Случайная велиичина</t>
+  </si>
+  <si>
+    <t>t-оценка (Конкретное значение случайной величины)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p = </t>
+  </si>
+  <si>
+    <t>с)</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1542,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1691,6 +1710,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1698,6 +1720,21 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC983B2D-0AF2-4464-B162-6744A7542BFA}"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1741,21 +1778,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7093,16 +7115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133642</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7125,8 +7147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419350" y="8048626"/>
-          <a:ext cx="7048500" cy="1610016"/>
+          <a:off x="2457450" y="8257594"/>
+          <a:ext cx="6800850" cy="1553448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7221,6 +7243,266 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75870</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76230</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Рукописный ввод 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303A52A5-857B-468E-9A7E-B85966D3E5E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10534320" y="12658260"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Рукописный ввод 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303A52A5-857B-468E-9A7E-B85966D3E5E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10525680" y="12649620"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352230</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352590</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76380</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Рукописный ввод 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDB7241-12E6-4C87-8476-55AE6B313F81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11420280" y="12268020"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Рукописный ввод 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDB7241-12E6-4C87-8476-55AE6B313F81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11411640" y="12259380"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371070</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371430</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="Рукописный ввод 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311C8A33-2A38-4844-89BA-007A6F3E7504}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10829520" y="12401220"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Рукописный ввод 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311C8A33-2A38-4844-89BA-007A6F3E7504}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10820880" y="12392580"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468030</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Рукописный ввод 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4A4B77-1233-4AEE-AA8A-9DB8CDD2ED1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5752800" y="9972300"/>
+            <a:ext cx="906480" cy="542880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Рукописный ввод 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4A4B77-1233-4AEE-AA8A-9DB8CDD2ED1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5744157" y="9963660"/>
+              <a:ext cx="924127" cy="560520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7538,8 +7820,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4238625</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -8695,6 +8977,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>303742</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7A4CD1-CC81-4122-B55C-0DD236F71C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="0"/>
+          <a:ext cx="8466667" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18221</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597A78BB-67DA-4CDD-823F-31A83C185061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="6257925"/>
+          <a:ext cx="6628571" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -8709,7 +9084,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T11:54:07.641"/>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-04T07:46:02.255"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -8718,13 +9093,135 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 1,'6'1,"0"1,0 0,-1 1,1-1,0 1,-1 0,1 0,-1 1,6 5,3 1,361 264,-281-193,-58-48,44 31,-35-33,-19-15,-1 1,-1 1,0 2,-2 0,0 1,23 30,-6 2,1-2,-3 2,-2 1,45 96,-51-79,46 100,-20-72,-24-48,42 103,-61-115,-2 1,-2 0,-2 1,2 47,-3-29,13 59,73 202,1 4,-63-200,-10-50,17 147,-20-92,43 174,-40-218,-12-46,2 67,1 11,6-13,6 192,-11-124,0-41,3 65,2 76,-16-250</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2064.64">107 1,'1'2,"1"0,-1 0,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,0-1,2 2,5 2,11 5,1 0,0-1,0-2,1 0,26 3,-24-4,0 2,0 1,-1 1,0 1,31 17,-23-10,61 21,-48-30,-25-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3126.19">1 1,'1'14,"0"0,1 0,6 20,4 30,-8 263,-5-185,1-119</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:46.550"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">238 21,'-1'-1,"1"0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,-37 5,33-3,1 1,-1 0,1 0,0 0,0 0,0 1,0 0,1 0,0 1,0-1,-4 6,-39 63,19-27,23-39,1 0,0 0,0 0,1 0,0 0,0 1,1-1,0 1,-2 9,4-15,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,4 1,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,-1 0,1-1,-1 0,0 1,0-1,0-1,0 1,-1 0,1-1,-1 0,0 0,0 0,0 0,-1 0,0-1,4-6,0-7,-1 1,0-1,-1 1,-1-1,0 0,-2-1,0-25,-1 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="552.53">291 338,'0'4,"-5"2,-5 0,-6 3,-1 5,-1 0,-2-3,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266.23">741 74,'-5'0,"0"0,0 1,1-1,-1 1,0 1,1-1,-1 0,1 1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 1,0 0,0 0,-3 8,0 0,0 1,2 0,-1 0,2 0,0 0,0 1,0 19,2-29,1 0,-1 0,1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,1 0,-1 1,0-1,1 0,5 4,-5-5,0-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,5-4,1-2,-1-1,0 0,0 0,-1 0,0-1,-1 0,0-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-1-1,2-21,-6 13,-3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3399.01">1085 47,'-1'0,"0"0,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 2,-6 38,4-29,-13 31,12-38,0 0,1 0,0 1,0-1,1 1,-2 6,3-11,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,1 1,34 6,-14-3,-21-4,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,-1 1,-2 2,1 0,-1 0,0 0,0-1,0 0,-1 1,1-2,-1 1,0 0,1-1,-9 2,-77 8,45-7,42-5,1 1,-1-1,1 0,0 0,-1 0,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-4-2,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3976.81">1085 47,'4'0,"7"0,5 0,4 0,9 0,8-5,6-1,5 1,0 0,-10-2,-10-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:52.244"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">174 89,'-7'0,"1"1,-1 1,1-1,0 1,-1 0,1 1,0-1,1 1,-1 0,0 1,1-1,-1 1,1 0,0 0,1 1,-1 0,-5 7,1-2,1 1,1 1,-1-1,2 1,0 0,0 0,-6 23,11-33,1-1,-1 1,1 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,1-1,0 2,2-1,-1 0,0 1,1-2,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,5 0,4 0,-1 0,0-1,0-1,1 0,-1-1,23-5,-30 4,0 1,0-1,0 1,0-2,0 1,-1 0,0-1,1 0,-1 0,-1 0,1 0,0-1,-1 1,0-1,0 0,-1 0,4-9,-4 10,-1 0,1-1,-1 1,0-1,0 1,-1-1,0 1,1-1,-1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,0 0,0 0,-5-7,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.4">254 327,'0'4,"0"7,-5 1,-1 2,-4 0,-1 2,-2-2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1919.35">571 89,'-2'0,"0"1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1 2,-14 31,15-32,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,1-1,-1 1,0 0,0-1,1 0,2 2,0-2,0 1,0-1,0 0,0 0,0-1,0 1,1-1,-1 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 0,9-5,-7 2,-1 1,0-1,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,0 1,-1-1,1 0,-1 1,0-1,-1 0,2-13,-3 17,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,1-1,-1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,-5 1,3 0,0 0,-1 1,1-1,0 1,-1 1,-10 3,9-2,-11 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3187.97">1021 36,'-4'1,"0"0,1 0,-1 0,1 1,0-1,-1 1,1 0,0 0,0 0,0 1,0-1,1 1,-1-1,0 1,1 0,0 0,0 0,0 1,0-1,-1 4,-4 6,1-1,0 1,1 0,-4 17,8-28,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,0 2,-1-3,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,-1 0,2 0,5 0,0-1,-1 0,1 0,0-1,-1 0,7-3,31-5,-43 10,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 3,-2 2,0 1,0-1,-1 0,0 0,0 0,0 0,-1-1,-6 7,5-7,1-1,-1 0,0-1,0 0,0 0,0 0,-1 0,1-1,-1 0,1-1,-1 1,0-1,0 0,0-1,0 0,0 0,1 0,-1-1,-7-2,-3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3752.03">995 63,'4'0,"7"0,0-5,4-1,3 0,4 2,2 0,1 2,2-3,0-2,0 2,-5-4,-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:58.071"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">93 187,'-3'0,"1"0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 5,-4 8,0 0,-6 31,1-5,10-38,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,0 0,0-1,0 1,1 0,-1-1,3 7,-2-8,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1-1,0 1,4-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,-1-1,1 1,-1-1,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,0 0,3-11,-2 9,-2 1,1-1,-1 0,0 0,0-1,-1 1,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0 0,-1 1,1-1,-1 0,-1 1,1 0,-8-9,-1 0,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="621.5">384 425,'-5'0,"-1"4,-4 2,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1872.07">754 54,'-3'0,"1"1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,-1 3,-25 39,23-37,-1 6,-1 0,2 0,-1 1,-4 23,8-30,0 0,1 0,0 0,1 0,0 0,0 0,0 0,1 0,0 0,0 0,4 10,-4-14,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,3-1,-1 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1 0,4-6,0-3,-1 0,0 0,-1-1,-1 0,0 0,0 0,2-21,-5 25,0 0,0 0,-1 1,0-1,-1 0,0 0,-1 0,1 0,-2 1,1-1,-1 1,-6-12,-2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3239.75">1072 1,'0'14,"0"23,-1-1,-8 51,9-86,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,2 0,5 1,1 1,-1-2,0 1,14 0,-16-2,0 0,0 1,0 0,0 0,0 0,-1 1,8 2,-11-3,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1-1,1 1,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,-1 0,1 1,0-1,-1 0,0 3,-1-2,0 1,1-2,-1 1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-1 1,1-2,-1 1,-5 1,-42 1,-24 5,36-4,26-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3858.2">1125 28,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,-4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:03:04.225"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 67,'-3'0,"0"1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,-2 5,-1-2,1 1,1 1,-1-1,1 0,0 1,-2 7,1 0,1 1,1-1,0 1,1 0,0 0,1-1,1 1,1 0,0 0,4 16,-4-29,-1 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,3-2,1 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 1,0-2,0 1,0 0,6-8,-4 3,0 0,0-1,-1 0,-1-1,0 1,9-22,-13 28,-1 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-6-6,6 6,-66-65,62 63,1 1,-1 0,-1 0,1 0,-1 1,1-1,-1 2,0-1,0 1,-13-3,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.31">298 252,'0'4,"0"7,-5 5,0 5,-6-1,-4 0,-4 1,0 2,0-3,3 0,-1-4,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2033.99">536 41,'-2'0,"0"0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-2 2,1 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,1 8,-1-6,1 0,0 0,1 0,0-1,0 1,0 0,1 0,0 0,0-1,1 1,-1-1,2 0,-1 1,5 5,-5-9,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,0 1,1-1,-1 1,0-1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 0,9-3,-5 1,-1 0,0-1,0 1,0-2,0 1,-1-1,0 0,0 0,0-1,0 0,-1 0,0 0,5-8,-6 8,-1 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,-1 0,1-1,-1 1,-1 0,1-13,-2 17,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-4 1,-18-1,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3091.98">1065 14,'-3'0,"-1"1,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-2 3,-33 59,30-51,7-13,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 0,1 0,10 2,0 0,0-1,25-2,-14 0,-22 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 0,-1 0,0 0,-1 0,1 1,-1 2,-1 3,0 0,-1 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,-7 9,0-4,0-1,0 0,-1 0,0-1,-27 14,24-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3652.41">1039 41,'4'0,"7"0,9 0,12 0,8 0,7-5,4-1,3-4,-4-1,-10 2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8751,7 +9248,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8781,7 +9278,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8810,7 +9307,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8840,7 +9337,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8871,7 +9368,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8898,7 +9395,34 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-04T07:46:03.258"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8926,7 +9450,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8950,13 +9474,105 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 231,'0'-5,"1"1,0-1,0 0,0 1,0-1,1 1,0 0,0 0,0-1,0 1,1 0,-1 1,4-5,48-47,-26 28,-28 26,0 1,0-1,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,2 1,-1 1,0 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 4,-10 61,-2-20,-1 2,-8 65,21-104</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="997.84">371 126,'-2'0,"0"1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0 1,-18 39,15-32,-10 20,-19 48,31-73,1 1,-1-1,1 1,0 0,1-1,-1 1,1-1,0 1,1 0,-1-1,3 10,-3-13,1 0,0 0,0-1,0 1,-1 0,2 0,-1-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0-1,0 1,3 1,-1-1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,5-1,-2 0,-1 0,1 0,-1-1,1 0,-1 0,0-1,-1 0,1 0,0 0,-1-1,0 1,6-9,-3 0,-1 0,-1-1,-1 0,0 0,5-19,-8 25,0 0,-1 0,0 0,0 0,-1 0,0-1,0 1,-1 0,0 0,-1 0,-2-9,-6 1,-2 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="997.83">371 126,'-2'0,"0"1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0 1,-18 39,15-32,-10 20,-19 48,31-73,1 1,-1-1,1 1,0 0,1-1,-1 1,1-1,0 1,1 0,-1-1,3 10,-3-13,1 0,0 0,0-1,0 1,-1 0,2 0,-1-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0-1,0 1,3 1,-1-1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,5-1,-2 0,-1 0,1 0,-1-1,1 0,-1 0,0-1,-1 0,1 0,0 0,-1-1,0 1,6-9,-3 0,-1 0,-1-1,-1 0,0 0,5-19,-8 25,0 0,-1 0,0 0,0 0,-1 0,0-1,0 1,-1 0,0 0,-1 0,-2-9,-6 1,-2 5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1589.46">636 390,'0'4,"0"7,0 5,0 5,-5-1,-1 0,-4-3,-1 0,2-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3291.69">900 20,'51'-10,"-43"8,0 0,0 0,0 1,0-1,0 2,11 0,-17 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 3,3 10,0 1,-2 0,0 0,-1 0,0 0,-2 0,-3 19,4-29,0 0,0 0,-1 0,0-1,0 1,0 0,-1-1,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,0 0,-1 1,1-2,-1 1,0 0,-1-1,-7 4,-2-1,-41 13,54-18,-1 0,1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0-1,0 1,0 0,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,-2-2,3 3,1 0,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,2 0,36-2,-28 6,-1 1,1-1,-1 2,1-1,-2 2,1-1,15 15,-18-14,0-1,1 0,0-1,0 0,0 0,1 0,0-1,0 0,0 0,0-1,0 0,1-1,10 2,31-1,-28-4</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-04T07:46:03.617"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-04T07:44:30.099"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 345,'4'0,"7"0,5 0,5 0,3 0,6 0,8 0,1 0,3 0,0 0,-4 0,-4 0,-2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="666.2">1 504,'4'0,"7"0,9 0,12 0,3-5,2-1,-2 0,2 1,0 2,-3 1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3338.72">953 213,'1'54,"-1"48,-1-93,0 0,-1 1,0-1,0 0,-1 0,0 0,-1-1,-6 13,0-5,-3 7,-28 34,38-53,0 0,-1 0,0 0,0 0,0 0,0-1,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,-8 1,12-2,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,1 1,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 0,0 1,0-1,0 1,-1-1,2 1,-1-1,0 0,0 1,0-1,1-1,0-4,0 1,0 0,1 0,-1-1,1 1,1 0,-1 0,1 1,0-1,5-7,-5 10,-1 0,1 0,-1 1,1-1,0 0,0 1,0 0,0 0,1 0,-1 0,0 0,1 1,0 0,-1-1,1 1,0 0,-1 1,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 1,0 0,-1 0,1 0,5 2,7 5,-1 1,0 1,0 0,-1 1,17 16,-17-14,1-1,27 17,10-9,-28-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="190562.13">1430 213,'0'4,"0"6,0 7,0 3,0 4,0 3,0 4,0 3,0 4,0 0,0-2,0-3,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="191216.72">1271 372,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,0 0,1 0,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="192380.9">1853 345,'39'-37,"54"-40,-91 76,-1 0,0-1,0 1,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0-1,0 1,-1 1,1-1,0 0,2 1,-3 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,-1 3,0 7,0 1,-1 0,-1-1,0 1,-6 15,-4 8,1 1,2 0,-6 43,-2 9,12-65</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="193636.05">847 1,'-4'0,"1"0,-1 1,0-1,1 1,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,-1 0,-2 5,-4 8,1 0,0 0,-6 24,-10 16,12-31,2 1,-10 32,4-9,-15 65,6-16,17-75</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="194781.88">2514 133,'1'71,"1"-25,-7 74,3-107,0 1,-1-1,0 1,-1-1,-1 0,0 0,-1-1,0 1,-14 19,14-25,-1-1,1 0,-2 0,1-1,0 0,-1 0,0-1,0 0,-10 4,-15 8,-5 4,23-14,0 2,1 0,0 1,1 0,0 1,-23 22,20-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="196056.39">636 874,'12'0,"1"2,0 0,16 4,27 5,531-2,-363-12,-80 0,154 6,-225 10,-52-9,-1 0,30 1,17-4,-33-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="197197.9">1482 1218,'0'-2,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 1,0-1,0 0,0 1,2-2,61-10,-53 11,39-8,-34 5,0 1,0 1,0 0,0 1,0 1,21 2,-36-1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,-1 2,-1 5,0-1,-1 0,0-1,-1 1,0-1,0 0,0 0,-9 8,-11 6,-1-1,-1-1,-1-1,-48 23,54-30,17-8,0-1,1 1,-1 1,1-1,0 1,-7 7,10-10,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 1,1-1,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 0,0 1,0-1,0 0,1 1,0-1,42 7,1-2,49 0,-19-2,85 6,-98-7</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T11:54:07.641"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 1,'6'1,"0"1,0 0,-1 1,1-1,0 1,-1 0,1 0,-1 1,6 5,3 1,361 264,-281-193,-58-48,44 31,-35-33,-19-15,-1 1,-1 1,0 2,-2 0,0 1,23 30,-6 2,1-2,-3 2,-2 1,45 96,-51-79,46 100,-20-72,-24-48,42 103,-61-115,-2 1,-2 0,-2 1,2 47,-3-29,13 59,73 202,1 4,-63-200,-10-50,17 147,-20-92,43 174,-40-218,-12-46,2 67,1 11,6-13,6 192,-11-124,0-41,3 65,2 76,-16-250</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2064.64">107 1,'1'2,"1"0,-1 0,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,0-1,2 2,5 2,11 5,1 0,0-1,0-2,1 0,26 3,-24-4,0 2,0 1,-1 1,0 1,31 17,-23-10,61 21,-48-30,-25-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3126.19">1 1,'1'14,"0"0,1 0,6 20,4 30,-8 263,-5-185,1-119</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8984,7 +9600,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9011,7 +9627,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9038,7 +9654,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9063,130 +9679,6 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">102 3,'-1'4,"-1"-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,-1 1,0-1,1-1,-1 1,-6 4,-12 15,15-10,1 0,0 0,0 0,2 1,-1 0,2 0,0 0,-1 14,-3 11,5-30,0 0,0-1,1 1,0-1,0 1,1 0,-1-1,4 10,-4-15,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1-1,0 1,3 1,-2-1,0-1,0 0,1 1,-1-1,0 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 0,0 0,4-2,4-2,-1 0,0 0,0-1,0-1,0 1,-1-1,0-1,-1 0,0 0,0 0,0-1,-1 0,-1 0,1 0,-1-1,-1 0,0 0,0 0,-1-1,-1 1,1-1,-2 1,1-1,-1-15,-1 16,-5-42,5 49,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,-4-1,-11-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="563.61">393 320,'0'4,"-5"2,-5 5,-2 4,-3 0,2 2,-3-2,2 1,-1-3,2-7,4-5</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:46.550"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">238 21,'-1'-1,"1"0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,-37 5,33-3,1 1,-1 0,1 0,0 0,0 0,0 1,0 0,1 0,0 1,0-1,-4 6,-39 63,19-27,23-39,1 0,0 0,0 0,1 0,0 0,0 1,1-1,0 1,-2 9,4-15,0 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,4 1,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,-1 0,1-1,-1 0,0 1,0-1,0-1,0 1,-1 0,1-1,-1 0,0 0,0 0,0 0,-1 0,0-1,4-6,0-7,-1 1,0-1,-1 1,-1-1,0 0,-2-1,0-25,-1 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="552.53">291 338,'0'4,"-5"2,-5 0,-6 3,-1 5,-1 0,-2-3,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266.23">741 74,'-5'0,"0"0,0 1,1-1,-1 1,0 1,1-1,-1 0,1 1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 1,0 0,0 0,-3 8,0 0,0 1,2 0,-1 0,2 0,0 0,0 1,0 19,2-29,1 0,-1 0,1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,1 0,-1 1,0-1,1 0,5 4,-5-5,0-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,5-4,1-2,-1-1,0 0,0 0,-1 0,0-1,-1 0,0-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-1-1,2-21,-6 13,-3 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3399.01">1085 47,'-1'0,"0"0,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 2,-6 38,4-29,-13 31,12-38,0 0,1 0,0 1,0-1,1 1,-2 6,3-11,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,1 1,34 6,-14-3,-21-4,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,-1 1,-2 2,1 0,-1 0,0 0,0-1,0 0,-1 1,1-2,-1 1,0 0,1-1,-9 2,-77 8,45-7,42-5,1 1,-1-1,1 0,0 0,-1 0,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-4-2,-5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3976.81">1085 47,'4'0,"7"0,5 0,4 0,9 0,8-5,6-1,5 1,0 0,-10-2,-10-2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:52.244"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">174 89,'-7'0,"1"1,-1 1,1-1,0 1,-1 0,1 1,0-1,1 1,-1 0,0 1,1-1,-1 1,1 0,0 0,1 1,-1 0,-5 7,1-2,1 1,1 1,-1-1,2 1,0 0,0 0,-6 23,11-33,1-1,-1 1,1 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,1-1,0 2,2-1,-1 0,0 1,1-2,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,5 0,4 0,-1 0,0-1,0-1,1 0,-1-1,23-5,-30 4,0 1,0-1,0 1,0-2,0 1,-1 0,0-1,1 0,-1 0,-1 0,1 0,0-1,-1 1,0-1,0 0,-1 0,4-9,-4 10,-1 0,1-1,-1 1,0-1,0 1,-1-1,0 1,1-1,-1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,0 0,0 0,-5-7,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.4">254 327,'0'4,"0"7,-5 1,-1 2,-4 0,-1 2,-2-2,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1919.35">571 89,'-2'0,"0"1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1 2,-14 31,15-32,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,1-1,-1 1,0 0,0-1,1 0,2 2,0-2,0 1,0-1,0 0,0 0,0-1,0 1,1-1,-1 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 0,9-5,-7 2,-1 1,0-1,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,0 1,-1-1,1 0,-1 1,0-1,-1 0,2-13,-3 17,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,1-1,-1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,-5 1,3 0,0 0,-1 1,1-1,0 1,-1 1,-10 3,9-2,-11 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3187.97">1021 36,'-4'1,"0"0,1 0,-1 0,1 1,0-1,-1 1,1 0,0 0,0 0,0 1,0-1,1 1,-1-1,0 1,1 0,0 0,0 0,0 1,0-1,-1 4,-4 6,1-1,0 1,1 0,-4 17,8-28,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,0 2,-1-3,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,-1 0,2 0,5 0,0-1,-1 0,1 0,0-1,-1 0,7-3,31-5,-43 10,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 3,-2 2,0 1,0-1,-1 0,0 0,0 0,0 0,-1-1,-6 7,5-7,1-1,-1 0,0-1,0 0,0 0,0 0,-1 0,1-1,-1 0,1-1,-1 1,0-1,0 0,0-1,0 0,0 0,1 0,-1-1,-7-2,-3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3752.03">995 63,'4'0,"7"0,0-5,4-1,3 0,4 2,2 0,1 2,2-3,0-2,0 2,-5-4,-5 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:02:58.071"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">93 187,'-3'0,"1"0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 5,-4 8,0 0,-6 31,1-5,10-38,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,0 0,0-1,0 1,1 0,-1-1,3 7,-2-8,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1-1,0 1,4-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,-1-1,1 1,-1-1,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,0 0,3-11,-2 9,-2 1,1-1,-1 0,0 0,0-1,-1 1,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0 0,-1 1,1-1,-1 0,-1 1,1 0,-8-9,-1 0,2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="621.5">384 425,'-5'0,"-1"4,-4 2,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1872.07">754 54,'-3'0,"1"1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,-1 3,-25 39,23-37,-1 6,-1 0,2 0,-1 1,-4 23,8-30,0 0,1 0,0 0,1 0,0 0,0 0,0 0,1 0,0 0,0 0,4 10,-4-14,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,3-1,-1 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1 0,4-6,0-3,-1 0,0 0,-1-1,-1 0,0 0,0 0,2-21,-5 25,0 0,0 0,-1 1,0-1,-1 0,0 0,-1 0,1 0,-2 1,1-1,-1 1,-6-12,-2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3239.75">1072 1,'0'14,"0"23,-1-1,-8 51,9-86,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,2 0,5 1,1 1,-1-2,0 1,14 0,-16-2,0 0,0 1,0 0,0 0,0 0,-1 1,8 2,-11-3,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1-1,1 1,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,-1 0,1 1,0-1,-1 0,0 3,-1-2,0 1,1-2,-1 1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-1 1,1-2,-1 1,-5 1,-42 1,-24 5,36-4,26-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3858.2">1125 28,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,-4 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-05-02T12:03:04.225"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">86 67,'-3'0,"0"1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,-2 5,-1-2,1 1,1 1,-1-1,1 0,0 1,-2 7,1 0,1 1,1-1,0 1,1 0,0 0,1-1,1 1,1 0,0 0,4 16,-4-29,-1 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,3-2,1 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 1,0-2,0 1,0 0,6-8,-4 3,0 0,0-1,-1 0,-1-1,0 1,9-22,-13 28,-1 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-6-6,6 6,-66-65,62 63,1 1,-1 0,-1 0,1 0,-1 1,1-1,-1 2,0-1,0 1,-13-3,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.32">298 252,'0'4,"0"7,-5 5,0 5,-6-1,-4 0,-4 1,0 2,0-3,3 0,-1-4,3-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2033.99">536 41,'-2'0,"0"0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-2 2,1 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,1 8,-1-6,1 0,0 0,1 0,0-1,0 1,0 0,1 0,0 0,0-1,1 1,-1-1,2 0,-1 1,5 5,-5-9,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,0 1,1-1,-1 1,0-1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 0,9-3,-5 1,-1 0,0-1,0 1,0-2,0 1,-1-1,0 0,0 0,0-1,0 0,-1 0,0 0,5-8,-6 8,-1 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,-1 0,1-1,-1 1,-1 0,1-13,-2 17,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-4 1,-18-1,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3091.98">1065 14,'-3'0,"-1"1,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-2 3,-33 59,30-51,7-13,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 0,1 0,10 2,0 0,0-1,25-2,-14 0,-22 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 0,-1 0,0 0,-1 0,1 1,-1 2,-1 3,0 0,-1 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,-7 9,0-4,0-1,0 0,-1 0,0-1,-27 14,24-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3652.41">1039 41,'4'0,"7"0,9 0,12 0,8 0,7-5,4-1,3-4,-4-1,-10 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9246,10 +9738,10 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58F9A5F1-C850-4CBA-AC0E-23AA7D60357E}" name="Возраст детей" dataCellStyle="Обычный 2"/>
-    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="8" dataCellStyle="Обычный 2">
+    <tableColumn id="2" xr3:uid="{F211C63E-FA9E-4C8E-8507-B9CEFC08C760}" name="Умеренный выброс" dataDxfId="11" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет",Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$41), AND(Возраст_детей12[[#This Row],[Экстремальный выброс]]="Нет", Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$42)),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="7" dataCellStyle="Обычный 2">
+    <tableColumn id="3" xr3:uid="{EA435663-0CCD-40F3-8AC9-BC46AAC4187B}" name="Экстремальный выброс" dataDxfId="10" dataCellStyle="Обычный 2">
       <calculatedColumnFormula>IF(OR(Возраст_детей12[[#This Row],[Возраст детей]]&lt;=$N$43,Возраст_детей12[[#This Row],[Возраст детей]]&gt;=$N$44),"Да","Нет")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9258,16 +9750,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}" name="Таблица12" displayName="Таблица12" ref="M6:Q8" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="M6:Q8" xr:uid="{EC3B0B9B-8CA8-4416-9DEB-D591998580DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{54C86844-940F-48BE-922A-AA91752E5E69}" name="Характеристика" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2072FF2B-F5F3-44C9-B42C-6A7AC5F7F16A}" name="Обозначение" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F4CEECB2-8E4E-422B-9D05-FC0C141CB6FD}" name="Значение" dataDxfId="6">
       <calculatedColumnFormula>SQRT(O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1BE92A35-B850-4632-AA77-CC3BC3B09E8A}" name="Что характерезует" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4F332153-DAF2-4B1A-8CB0-1425471C2D91}" name="Как вычисляется" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9277,7 +9769,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}" name="Таблица13" displayName="Таблица13" ref="U4:V11" totalsRowShown="0">
   <autoFilter ref="U4:V11" xr:uid="{C60B6483-0F45-46F7-8E9A-ADDAE057DEEA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9BC64FD2-8E61-4A26-935E-E752B9043092}" name="Характеристика" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E9B58275-E6F3-46A6-AE7D-46262E754D6E}" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14358,15 +14850,15 @@
     <mergeCell ref="N29:P29"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A99">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>$N$42</formula>
       <formula>$N$44</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>$N$41</formula>
       <formula>$N$43</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
       <formula>$N$44</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14386,10 +14878,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A19:K86"/>
+  <dimension ref="A19:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14515,7 +15007,7 @@
         <v>10.30121954589981</v>
       </c>
       <c r="H39" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I39" s="71"/>
       <c r="J39" s="71"/>
@@ -14526,7 +15018,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="H40" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I40" s="71"/>
       <c r="J40" s="71"/>
@@ -14536,61 +15028,86 @@
         <v>183</v>
       </c>
     </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="81" t="s">
+        <v>293</v>
+      </c>
+    </row>
     <row r="43" spans="1:11">
-      <c r="B43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="B43" s="81" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="R65">
+        <f>1 - 0.85</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="R66">
+        <f>R65/2</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
       <c r="B68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C68" s="12">
         <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
         <v>4.0927926709893789</v>
       </c>
-    </row>
-    <row r="69" spans="2:7">
+      <c r="R68">
+        <f>1-R66</f>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
       <c r="B69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69">
         <f>COUNTA(Возраст_детей[Возраст детей])</f>
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:18">
       <c r="B70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70">
         <v>0.9</v>
       </c>
       <c r="E70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" t="s">
-        <v>204</v>
       </c>
       <c r="C71">
         <f>_xlfn.T.INV(C70,C69-1)</f>
         <v>1.2906227080477188</v>
       </c>
-    </row>
-    <row r="72" spans="2:7">
+      <c r="R71">
+        <f>_xlfn.T.INV(R68,15-1)</f>
+        <v>1.5230950609257912</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
       <c r="B72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
         <v>9.6105263157894729</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:18">
       <c r="B73" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>195</v>
@@ -14602,10 +15119,10 @@
         <v>195</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
       <c r="B75" s="62">
         <f>C72-C71*C68/SQRT(C69)</f>
         <v>9.0685787816934607</v>
@@ -14625,9 +15142,9 @@
         <v>10.152473849885485</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:18">
       <c r="D77" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
@@ -14636,9 +15153,9 @@
         <v>1.0838950681920245</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:18">
       <c r="D78" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
@@ -14648,22 +15165,22 @@
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="C85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="C86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -14679,14 +15196,14 @@
   </sheetPr>
   <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
     <col min="3" max="3" width="72.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.140625" bestFit="1" customWidth="1"/>
@@ -14705,10 +15222,10 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>210</v>
       </c>
       <c r="T1" s="31"/>
     </row>
@@ -14720,10 +15237,10 @@
     </row>
     <row r="5" spans="1:22" ht="15.75">
       <c r="A5" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="14"/>
     </row>
@@ -14737,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="12">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
@@ -14749,7 +15266,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="12">
         <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
@@ -14761,7 +15278,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9">
         <f>COUNTA(Возраст_детей2[Возраст детей])</f>
@@ -14788,13 +15305,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" t="s">
-        <v>215</v>
       </c>
       <c r="U13" s="32"/>
       <c r="V13" s="17"/>
@@ -14804,7 +15321,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -14812,13 +15329,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -14826,7 +15343,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -14834,10 +15351,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -14845,7 +15362,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
@@ -14856,7 +15373,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -14864,7 +15381,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="21.75">
@@ -14878,7 +15395,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K22" s="14"/>
     </row>
@@ -14887,7 +15404,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S23" s="17"/>
     </row>
@@ -14901,7 +15418,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K25" s="14"/>
       <c r="S25" s="17"/>
@@ -14911,7 +15428,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J26" s="53"/>
       <c r="K26" s="54"/>
@@ -14921,7 +15438,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J27" s="58"/>
       <c r="K27" s="54"/>
@@ -14947,7 +15464,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J30" s="53"/>
       <c r="K30" s="54"/>
@@ -14983,7 +15500,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J34" s="29"/>
     </row>
@@ -15001,10 +15518,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75">
@@ -15012,10 +15529,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N37" s="29"/>
       <c r="S37" s="17"/>
@@ -15034,10 +15551,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="S39" s="17"/>
     </row>
@@ -15051,7 +15568,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S41" s="17"/>
     </row>
@@ -15065,7 +15582,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S43" s="17"/>
     </row>
@@ -15090,7 +15607,10 @@
         <v>8</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="D47" t="s">
+        <v>292</v>
       </c>
       <c r="K47" s="17"/>
       <c r="S47" s="17"/>
@@ -15100,7 +15620,7 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75">
@@ -15108,7 +15628,7 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S49" s="37"/>
     </row>
@@ -15117,7 +15637,7 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T50" s="12"/>
     </row>
@@ -15133,7 +15653,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S52" s="36"/>
       <c r="T52" s="12"/>
@@ -15143,7 +15663,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S53" s="36"/>
       <c r="T53" s="12"/>
@@ -15153,7 +15673,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -15241,7 +15761,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D71" s="79"/>
       <c r="E71" s="79"/>
@@ -15257,7 +15777,7 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -15270,7 +15790,7 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -15278,7 +15798,7 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -15286,7 +15806,7 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -15299,7 +15819,7 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -15307,7 +15827,7 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -15320,7 +15840,7 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -15328,7 +15848,7 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -15336,7 +15856,7 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -15349,7 +15869,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -15362,7 +15882,7 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -15370,7 +15890,7 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -15378,7 +15898,7 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -15386,7 +15906,7 @@
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -15399,7 +15919,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -15412,7 +15932,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -15420,7 +15940,7 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -15428,7 +15948,7 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -15436,7 +15956,7 @@
         <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -15456,36 +15976,36 @@
     </row>
     <row r="102" spans="1:6">
       <c r="B102" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75">
       <c r="B103" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E103" s="80"/>
     </row>
     <row r="104" spans="1:6">
       <c r="B104" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E104" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="F104" s="74" t="s">
         <v>277</v>
-      </c>
-      <c r="C104" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="D104" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="E104" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="F104" s="74" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -15583,7 +16103,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="B110" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="C110" s="12">
         <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
@@ -15592,7 +16112,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="B111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C111" s="12">
         <f>SUM(Возраст_детей[Возраст детей])/COUNT(Возраст_детей[Возраст детей])</f>
@@ -15601,28 +16121,28 @@
     </row>
     <row r="114" spans="2:16" ht="15.75">
       <c r="B114" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="15.75">
       <c r="B115" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D115" s="59"/>
     </row>
     <row r="116" spans="2:16" ht="15.75">
       <c r="B116" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="15.75">
       <c r="B118" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="15.75">
       <c r="B119" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="2:16">
@@ -15672,4 +16192,41 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F46CE-9884-434B-B2B5-AEA51E446686}">
+  <dimension ref="E31:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="31" spans="5:8">
+      <c r="E31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31">
+        <f>_xlfn.T.DIST(-2.4,12-1,TRUE)</f>
+        <v>1.7616282985868037E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43">
+        <f>_xlfn.T.INV(0.6,14-1)</f>
+        <v>0.25859085771177004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
+++ b/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего/Задание 4 Продолжение исследования/Исследование 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\6 Точечное и доверительное оценивание\2 Доверительные интервалы для среднего\Задание 4 Продолжение исследования\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DD86B7-A7AB-47BB-A24E-1DE94D84643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF112AC9-FA2F-4B34-AB00-8BE69AA5C266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Первичная обработка данных" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Отчёт 1" sheetId="8" r:id="rId3"/>
     <sheet name="Построение дов. интервала" sheetId="9" r:id="rId4"/>
     <sheet name="Отчёт 2" sheetId="11" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="12" r:id="rId6"/>
+    <sheet name="Наброски решения задач в классе" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Итого_детей_возраста_1_9_лет">#REF!</definedName>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="304">
   <si>
     <t>Частота</t>
   </si>
@@ -1146,12 +1146,6 @@
     <t>Объясните, почему это происходит.</t>
   </si>
   <si>
-    <t>Граница ошибки это и есть размер интервала доверия (разница между его границами)</t>
-  </si>
-  <si>
-    <t>Поэтому при росте доверительного интервала граница ошибки также растёт.</t>
-  </si>
-  <si>
     <t>0) Собранные данные</t>
   </si>
   <si>
@@ -1174,6 +1168,30 @@
   </si>
   <si>
     <t>с)</t>
+  </si>
+  <si>
+    <t>Граница ошибки считается как расстояние от центра доверительного интервала, до его границы.</t>
+  </si>
+  <si>
+    <t>Центр дов. Интервала</t>
+  </si>
+  <si>
+    <t>* Чем ниже в таблице, тем больше уровень доверия и тем больше размер интервала</t>
+  </si>
+  <si>
+    <t>По мере увеличения ур. Доверия a граница ошибки увеличивается</t>
+  </si>
+  <si>
+    <t>Чем больше ур. Доверия, тем больше данных в ключаются и тем больше размер доверительного интервала.</t>
+  </si>
+  <si>
+    <t>Т.к. граница ошибки считается, как расстояние от центра дов. Интервала, до его границы получается, что чем больше дов. Интервал и его уровень доверия, тем больше граница ошибки.</t>
+  </si>
+  <si>
+    <t>Длина доверительного интервала увеличивается. Это происходит из-за того, что чем больше ур. Доверия, тем больше и длина интервала, т.к. покрывается больше данных.</t>
+  </si>
+  <si>
+    <t>Объяснил выше.</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1560,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1696,6 +1714,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1710,9 +1731,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -7258,8 +7280,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>85620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Рукописный ввод 11">
@@ -7278,7 +7300,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Рукописный ввод 11">
@@ -7323,8 +7345,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>76380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Рукописный ввод 12">
@@ -7343,7 +7365,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Рукописный ввод 12">
@@ -7388,8 +7410,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Рукописный ввод 13">
@@ -7408,7 +7430,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Рукописный ввод 13">
@@ -7453,8 +7475,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>37680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Рукописный ввод 24">
@@ -7473,7 +7495,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Рукописный ввод 24">
@@ -7519,7 +7541,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>791226</xdr:colOff>
+      <xdr:colOff>19701</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152641</xdr:rowOff>
     </xdr:to>
@@ -7726,102 +7748,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2466667</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2F434E-5542-49FD-B8AA-BF033A016691}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4143375" y="8162925"/>
-          <a:ext cx="2466667" cy="419048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2587675</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5611CED1-4542-411A-9F97-FCEF3AB9CA48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8982075" y="8172450"/>
-          <a:ext cx="2580952" cy="428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2604625</xdr:colOff>
+      <xdr:colOff>3147550</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4238625</xdr:colOff>
+      <xdr:colOff>4781550</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -7839,7 +7773,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7853,7 +7787,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4033375" y="10477500"/>
+          <a:off x="4576300" y="10487025"/>
           <a:ext cx="4939175" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7876,15 +7810,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2111371</xdr:colOff>
+      <xdr:colOff>2292346</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7900,7 +7834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7914,8 +7848,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8972550" y="10458450"/>
-          <a:ext cx="4939175" cy="2752725"/>
+          <a:off x="9744075" y="10477500"/>
+          <a:ext cx="4940296" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7949,7 +7883,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Рукописный ввод 19">
               <a:extLst>
@@ -8067,15 +8001,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>471945</xdr:colOff>
+      <xdr:colOff>157620</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>68205</xdr:rowOff>
+      <xdr:rowOff>96780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>545025</xdr:colOff>
+      <xdr:colOff>230700</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>30345</xdr:rowOff>
+      <xdr:rowOff>58920</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8092,7 +8026,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="11778120" y="10545705"/>
+            <a:off x="12549645" y="10583805"/>
             <a:ext cx="73080" cy="152640"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -8131,16 +8065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>191865</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2706465</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>65685</xdr:rowOff>
+      <xdr:rowOff>94260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333345</xdr:colOff>
+      <xdr:colOff>19020</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>33225</xdr:rowOff>
+      <xdr:rowOff>61800</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8157,7 +8091,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="11498040" y="10543185"/>
+            <a:off x="12269565" y="10581285"/>
             <a:ext cx="141480" cy="158040"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -8327,15 +8261,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>633330</xdr:colOff>
+      <xdr:colOff>738105</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>94785</xdr:rowOff>
+      <xdr:rowOff>132885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1093050</xdr:colOff>
+      <xdr:colOff>1197825</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>63045</xdr:rowOff>
+      <xdr:rowOff>101145</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8352,7 +8286,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="9605880" y="11905785"/>
+            <a:off x="10301205" y="11953410"/>
             <a:ext cx="459720" cy="158760"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -8392,15 +8326,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1396505</xdr:colOff>
+      <xdr:colOff>1596530</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>83442</xdr:rowOff>
+      <xdr:rowOff>140592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1891703</xdr:colOff>
+      <xdr:colOff>2091728</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>56742</xdr:rowOff>
+      <xdr:rowOff>113892</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8417,7 +8351,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="13196299" y="11928060"/>
+            <a:off x="13988555" y="11961117"/>
             <a:ext cx="495198" cy="163800"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -8717,15 +8651,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1266570</xdr:colOff>
+      <xdr:colOff>1457070</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>85305</xdr:rowOff>
+      <xdr:rowOff>94830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1686330</xdr:colOff>
+      <xdr:colOff>1876830</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>74085</xdr:rowOff>
+      <xdr:rowOff>83610</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8742,7 +8676,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="10239120" y="12848805"/>
+            <a:off x="11020170" y="12867855"/>
             <a:ext cx="419760" cy="179280"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -8781,16 +8715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219585</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2677035</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>114105</xdr:rowOff>
+      <xdr:rowOff>133155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>292305</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2749755</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>38805</xdr:rowOff>
+      <xdr:rowOff>57855</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8807,7 +8741,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="11525760" y="12877605"/>
+            <a:off x="12240135" y="12906180"/>
             <a:ext cx="72720" cy="115200"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -8847,15 +8781,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2288610</xdr:colOff>
+      <xdr:colOff>2431485</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>102585</xdr:rowOff>
+      <xdr:rowOff>121635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2388408</xdr:colOff>
+      <xdr:colOff>2531283</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>63645</xdr:rowOff>
+      <xdr:rowOff>82695</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8872,8 +8806,8 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="11261160" y="12866085"/>
-            <a:ext cx="102600" cy="151560"/>
+            <a:off x="11994585" y="12894660"/>
+            <a:ext cx="99798" cy="151560"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
@@ -8912,15 +8846,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>885585</xdr:colOff>
+      <xdr:colOff>552210</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>69105</xdr:rowOff>
+      <xdr:rowOff>107205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1312905</xdr:colOff>
+      <xdr:colOff>979530</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>69405</xdr:rowOff>
+      <xdr:rowOff>107505</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -8937,7 +8871,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="12191760" y="12832605"/>
+            <a:off x="12944235" y="12880230"/>
             <a:ext cx="427320" cy="190800"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -9214,7 +9148,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">86 67,'-3'0,"0"1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,-2 5,-1-2,1 1,1 1,-1-1,1 0,0 1,-2 7,1 0,1 1,1-1,0 1,1 0,0 0,1-1,1 1,1 0,0 0,4 16,-4-29,-1 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,3-2,1 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 1,0-2,0 1,0 0,6-8,-4 3,0 0,0-1,-1 0,-1-1,0 1,9-22,-13 28,-1 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-6-6,6 6,-66-65,62 63,1 1,-1 0,-1 0,1 0,-1 1,1-1,-1 2,0-1,0 1,-13-3,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.31">298 252,'0'4,"0"7,-5 5,0 5,-6-1,-4 0,-4 1,0 2,0-3,3 0,-1-4,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.3">298 252,'0'4,"0"7,-5 5,0 5,-6-1,-4 0,-4 1,0 2,0-3,3 0,-1-4,3-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2033.99">536 41,'-2'0,"0"0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-2 2,1 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,1 8,-1-6,1 0,0 0,1 0,0-1,0 1,0 0,1 0,0 0,0-1,1 1,-1-1,2 0,-1 1,5 5,-5-9,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,0 1,1-1,-1 1,0-1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 0,9-3,-5 1,-1 0,0-1,0 1,0-2,0 1,-1-1,0 0,0 0,0-1,0 0,-1 0,0 0,5-8,-6 8,-1 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,-1 0,1-1,-1 1,-1 0,1-13,-2 17,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-4 1,-18-1,2 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3091.98">1065 14,'-3'0,"-1"1,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-2 3,-33 59,30-51,7-13,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1 0,1 0,10 2,0 0,0-1,25-2,-14 0,-22 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 0,-1 0,0 0,-1 0,1 1,-1 2,-1 3,0 0,-1 0,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,-7 9,0-4,0-1,0 0,-1 0,0-1,-27 14,24-16</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3652.41">1039 41,'4'0,"7"0,9 0,12 0,8 0,7-5,4-1,3-4,-4-1,-10 2</inkml:trace>
@@ -9537,7 +9471,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="191216.72">1271 372,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,0 0,1 0,-1 0,-4 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="192380.9">1853 345,'39'-37,"54"-40,-91 76,-1 0,0-1,0 1,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0-1,0 1,-1 1,1-1,0 0,2 1,-3 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,-1 3,0 7,0 1,-1 0,-1-1,0 1,-6 15,-4 8,1 1,2 0,-6 43,-2 9,12-65</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="193636.05">847 1,'-4'0,"1"0,-1 1,0-1,1 1,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,-1 0,-2 5,-4 8,1 0,0 0,-6 24,-10 16,12-31,2 1,-10 32,4-9,-15 65,6-16,17-75</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="194781.88">2514 133,'1'71,"1"-25,-7 74,3-107,0 1,-1-1,0 1,-1-1,-1 0,0 0,-1-1,0 1,-14 19,14-25,-1-1,1 0,-2 0,1-1,0 0,-1 0,0-1,0 0,-10 4,-15 8,-5 4,23-14,0 2,1 0,0 1,1 0,0 1,-23 22,20-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="194781.87">2514 133,'1'71,"1"-25,-7 74,3-107,0 1,-1-1,0 1,-1-1,-1 0,0 0,-1-1,0 1,-14 19,14-25,-1-1,1 0,-2 0,1-1,0 0,-1 0,0-1,0 0,-10 4,-15 8,-5 4,23-14,0 2,1 0,0 1,1 0,0 1,-23 22,20-14</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="196056.39">636 874,'12'0,"1"2,0 0,16 4,27 5,531-2,-363-12,-80 0,154 6,-225 10,-52-9,-1 0,30 1,17-4,-33-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="197197.9">1482 1218,'0'-2,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 1,0-1,0 0,0 1,2-2,61-10,-53 11,39-8,-34 5,0 1,0 1,0 0,0 1,0 1,21 2,-36-1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,-1 2,-1 5,0-1,-1 0,0-1,-1 1,0-1,0 0,0 0,-9 8,-11 6,-1-1,-1-1,-1-1,-48 23,54-30,17-8,0-1,1 1,-1 1,1-1,0 1,-7 7,10-10,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 1,1-1,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 0,0 1,0-1,0 0,1 1,0-1,42 7,1-2,49 0,-19-2,85 6,-98-7</inkml:trace>
 </inkml:ink>
@@ -12818,17 +12752,17 @@
         <v>163</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="G28" s="76" t="s">
+      <c r="G28" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
     </row>
     <row r="29" spans="1:15" ht="93" customHeight="1">
       <c r="A29" s="27" t="s">
@@ -12847,15 +12781,15 @@
       <c r="E29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
     </row>
     <row r="30" spans="1:15" ht="162" customHeight="1">
       <c r="A30" s="27" t="s">
@@ -12872,29 +12806,29 @@
         <v>169</v>
       </c>
       <c r="E30" s="27"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
     </row>
     <row r="31" spans="1:15">
       <c r="F31" s="17"/>
-      <c r="G31" s="76" t="s">
+      <c r="G31" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
@@ -13703,11 +13637,11 @@
       <c r="M29" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="N29" s="78" t="s">
+      <c r="N29" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
       <c r="U29" s="55" t="s">
         <v>149</v>
       </c>
@@ -15029,13 +14963,13 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="B42" s="81" t="s">
-        <v>293</v>
+      <c r="B42" s="76" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="B43" s="81" t="s">
-        <v>294</v>
+      <c r="B43" s="76" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="2:18">
@@ -15196,8 +15130,8 @@
   </sheetPr>
   <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15207,7 +15141,8 @@
     <col min="3" max="3" width="72.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="46.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
@@ -15237,7 +15172,7 @@
     </row>
     <row r="5" spans="1:22" ht="15.75">
       <c r="A5" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>230</v>
@@ -15475,9 +15410,9 @@
       </c>
       <c r="J31" s="53"/>
       <c r="K31" s="54"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
       <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19">
@@ -15584,6 +15519,12 @@
       <c r="B43" t="s">
         <v>246</v>
       </c>
+      <c r="C43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" t="s">
+        <v>277</v>
+      </c>
       <c r="S43" s="17"/>
     </row>
     <row r="44" spans="1:19">
@@ -15610,7 +15551,7 @@
         <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K47" s="17"/>
       <c r="S47" s="17"/>
@@ -15760,12 +15701,12 @@
       <c r="A71" s="1">
         <v>11</v>
       </c>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
@@ -15943,7 +15884,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>19</v>
       </c>
@@ -15951,7 +15892,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>20</v>
       </c>
@@ -15959,22 +15900,22 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:8">
       <c r="B102" s="31" t="s">
         <v>275</v>
       </c>
@@ -15982,16 +15923,19 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:8" ht="15.75">
       <c r="B103" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="D103" s="80" t="s">
+      <c r="D103" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="E103" s="80"/>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="E103" s="81"/>
+      <c r="F103" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="B104" s="73" t="s">
         <v>276</v>
       </c>
@@ -16004,11 +15948,17 @@
       <c r="E104" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="F104" s="74" t="s">
+      <c r="F104" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="G104" s="74" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="H104" s="82" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="B105" s="34">
         <v>0.5</v>
       </c>
@@ -16025,11 +15975,15 @@
         <v>9.893752431843744</v>
       </c>
       <c r="F105" s="75">
-        <f>E105-D105</f>
-        <v>0.56645223210854212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <f>D105+(E105-D105)/2</f>
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="G105" s="75">
+        <f>E105-F105</f>
+        <v>0.28322611605427106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="B106" s="34">
         <v>0.8</v>
       </c>
@@ -16046,11 +16000,15 @@
         <v>10.148664771306327</v>
       </c>
       <c r="F106" s="75">
-        <f t="shared" ref="F106:F108" si="3">E106-D106</f>
-        <v>1.0762769110337089</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <f t="shared" ref="F106:F108" si="3">D106+(E106-D106)/2</f>
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="G106" s="75">
+        <f t="shared" ref="G106:G108" si="4">E106-F106</f>
+        <v>0.53813845551685446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="B107" s="34">
         <v>0.95</v>
       </c>
@@ -16068,10 +16026,14 @@
       </c>
       <c r="F107" s="75">
         <f t="shared" si="3"/>
-        <v>1.6460234919393706</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="G107" s="75">
+        <f t="shared" si="4"/>
+        <v>0.82301174596968529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="B108" s="34">
         <v>0.99</v>
       </c>
@@ -16089,10 +16051,14 @@
       </c>
       <c r="F108" s="75">
         <f t="shared" si="3"/>
-        <v>2.1632415586770541</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>9.6105263157894729</v>
+      </c>
+      <c r="G108" s="75">
+        <f t="shared" si="4"/>
+        <v>1.0816207793385271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="B109" t="s">
         <v>190</v>
       </c>
@@ -16101,16 +16067,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C110" s="12">
         <f>SQRT(_xlfn.VAR.S(Возраст_детей[Возраст детей]))</f>
         <v>4.0927926709893789</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:8">
       <c r="B111" t="s">
         <v>281</v>
       </c>
@@ -16124,25 +16090,39 @@
         <v>285</v>
       </c>
     </row>
-    <row r="115" spans="2:16" ht="15.75">
-      <c r="B115" s="66" t="s">
+    <row r="115" spans="2:16">
+      <c r="B115" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16">
+      <c r="B116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16">
+      <c r="B117" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" ht="15.75">
+      <c r="B118" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="D115" s="59"/>
-    </row>
-    <row r="116" spans="2:16" ht="15.75">
-      <c r="B116" s="66" t="s">
+    </row>
+    <row r="119" spans="2:16">
+      <c r="B119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" ht="15.75">
+      <c r="B120" s="66" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="118" spans="2:16" ht="15.75">
-      <c r="B118" s="28" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="119" spans="2:16" ht="15.75">
-      <c r="B119" s="28" t="s">
-        <v>289</v>
+    <row r="121" spans="2:16">
+      <c r="B121" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="2:16">
@@ -16198,7 +16178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33F46CE-9884-434B-B2B5-AEA51E446686}">
   <dimension ref="E31:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -16206,10 +16186,10 @@
   <sheetData>
     <row r="31" spans="5:8">
       <c r="E31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H31">
         <f>_xlfn.T.DIST(-2.4,12-1,TRUE)</f>
@@ -16218,7 +16198,7 @@
     </row>
     <row r="43" spans="5:6">
       <c r="E43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F43">
         <f>_xlfn.T.INV(0.6,14-1)</f>
